--- a/examples/data/20220927 ITR Tool Test Data.xlsx
+++ b/examples/data/20220927 ITR Tool Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DDCE60-0461-2142-B514-FE5A2C8CC00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68358E9B-BA50-B241-87F3-4966BBFE735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="77140" windowHeight="31860" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="77140" windowHeight="31860" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="404">
   <si>
     <t>company_name</t>
   </si>
@@ -2539,6 +2539,9 @@
   </si>
   <si>
     <t>TJ</t>
+  </si>
+  <si>
+    <t>investment_value [USD]</t>
   </si>
 </sst>
 </file>
@@ -2878,7 +2881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2887,7 +2890,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2910,10 +2913,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2922,14 +2924,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2939,7 +2939,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2968,70 +2968,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3044,10 +3032,8 @@
     <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
@@ -5523,16 +5509,12 @@
     </row>
     <row r="9" spans="1:52">
       <c r="E9"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:52">
       <c r="E10"/>
     </row>
     <row r="11" spans="1:52">
       <c r="E11"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -6833,34 +6815,34 @@
       <c r="P10" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10">
         <v>625072</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10">
         <v>581703</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10">
         <v>678403</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10">
         <v>678967</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10">
         <v>699713</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10">
         <v>510911</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10">
         <v>538622</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10">
         <v>354095</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10">
         <v>130090</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10">
         <v>134849</v>
       </c>
       <c r="AE10" s="19" t="str">
@@ -6891,38 +6873,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM10" s="23">
+      <c r="AM10">
         <v>71714741</v>
       </c>
-      <c r="AN10" s="23">
+      <c r="AN10">
         <v>73093077</v>
       </c>
-      <c r="AO10" s="23">
+      <c r="AO10">
         <v>132520346</v>
       </c>
-      <c r="AP10" s="23">
+      <c r="AP10">
         <v>117682832</v>
       </c>
-      <c r="AQ10" s="23">
+      <c r="AQ10">
         <v>121705368</v>
       </c>
-      <c r="AT10" s="24">
+      <c r="AT10" s="23">
         <f>AM10*0.85/128</f>
         <v>476230.70195312501</v>
       </c>
-      <c r="AU10" s="24">
+      <c r="AU10" s="23">
         <f>AN10*0.85/127.5</f>
         <v>487287.18</v>
       </c>
-      <c r="AV10" s="24">
+      <c r="AV10" s="23">
         <f>AO10*0.85/127</f>
         <v>886947.19763779524</v>
       </c>
-      <c r="AW10" s="24">
+      <c r="AW10" s="23">
         <f>AP10*0.85/99.1</f>
         <v>1009388.569122099</v>
       </c>
-      <c r="AX10" s="24">
+      <c r="AX10" s="23">
         <f>AQ10*0.85/115.9</f>
         <v>892576.03796376183</v>
       </c>
@@ -7032,30 +7014,30 @@
         <v>35.6</v>
       </c>
       <c r="AK11" s="19"/>
-      <c r="AM11" s="94">
+      <c r="AM11" s="84">
         <f>AT11*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AN11" s="94">
+      <c r="AN11" s="84">
         <f t="shared" ref="AN11:AQ11" si="1">AU11*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AO11" s="94">
+      <c r="AO11" s="84">
         <f t="shared" si="1"/>
         <v>946.27100840336141</v>
       </c>
-      <c r="AP11" s="94">
+      <c r="AP11" s="84">
         <f t="shared" si="1"/>
         <v>822.359943977591</v>
       </c>
-      <c r="AQ11" s="94">
+      <c r="AQ11" s="84">
         <f t="shared" si="1"/>
         <v>834.55532212885146</v>
       </c>
-      <c r="AT11" s="25">
+      <c r="AT11" s="24">
         <v>12570</v>
       </c>
-      <c r="AU11" s="25">
+      <c r="AU11" s="24">
         <v>12570</v>
       </c>
       <c r="AV11">
@@ -7111,10 +7093,10 @@
       <c r="N12">
         <v>3187800000</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>98</v>
       </c>
       <c r="Q12">
@@ -7222,10 +7204,10 @@
       <c r="N13" s="22">
         <v>239535000000</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
       <c r="R13">
@@ -7299,15 +7281,15 @@
       <c r="AQ13">
         <v>611</v>
       </c>
-      <c r="AT13" s="97">
+      <c r="AT13" s="86">
         <f>9100*AM13/$AP13</f>
         <v>9568.2675814751292</v>
       </c>
-      <c r="AU13" s="97">
+      <c r="AU13" s="86">
         <f>9100*AN13/$AP13</f>
         <v>9802.4013722126929</v>
       </c>
-      <c r="AV13" s="97">
+      <c r="AV13" s="86">
         <f>9100*AO13/$AP13</f>
         <v>9974.0994854202399</v>
       </c>
@@ -7613,10 +7595,10 @@
       <c r="N16">
         <v>3758771000</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" t="s">
         <v>98</v>
       </c>
       <c r="Q16">
@@ -9086,40 +9068,40 @@
       <c r="N28">
         <v>124977000000</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" t="s">
         <v>58</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" t="s">
         <v>80</v>
       </c>
       <c r="Q28">
         <v>9723000</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>9532000</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>8841000</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>8566000</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>8493000</v>
       </c>
       <c r="X28">
         <v>7061000</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="25">
         <v>17693000</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="25">
         <v>21022000</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="25">
         <v>18864000</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="25">
         <v>13720000</v>
       </c>
       <c r="AE28" s="19">
@@ -9153,15 +9135,15 @@
       <c r="AS28" s="20">
         <v>186212000</v>
       </c>
-      <c r="AT28" s="27">
+      <c r="AT28" s="26">
         <f>195307000+51595000</f>
         <v>246902000</v>
       </c>
-      <c r="AU28" s="26">
+      <c r="AU28" s="25">
         <f>194224000+59050000</f>
         <v>253274000</v>
       </c>
-      <c r="AV28" s="28">
+      <c r="AV28" s="27">
         <f>189463000+69708000</f>
         <v>259171000</v>
       </c>
@@ -9213,46 +9195,46 @@
       <c r="N29" s="22">
         <v>332750000000</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="95" t="s">
+      <c r="P29" t="s">
         <v>387</v>
       </c>
       <c r="Q29">
         <v>117</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>115</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>116</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="25">
         <v>111</v>
       </c>
-      <c r="U29" s="26">
+      <c r="U29" s="25">
         <v>105</v>
       </c>
-      <c r="V29" s="96">
+      <c r="V29" s="85">
         <v>103</v>
       </c>
       <c r="X29">
         <v>8</v>
       </c>
-      <c r="Y29" s="26">
+      <c r="Y29" s="25">
         <v>8</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="25">
         <v>8</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="25">
         <v>8</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AB29" s="25">
         <v>7</v>
       </c>
-      <c r="AC29" s="96">
+      <c r="AC29" s="85">
         <v>6</v>
       </c>
       <c r="AE29" s="19">
@@ -9283,51 +9265,51 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL29" s="94">
+      <c r="AL29" s="84">
         <f t="shared" ref="AL29:AQ29" si="6">0.43*AS29/1000</f>
         <v>636.11834999999996</v>
       </c>
-      <c r="AM29" s="94">
+      <c r="AM29" s="84">
         <f t="shared" si="6"/>
         <v>625.44574999999998</v>
       </c>
-      <c r="AN29" s="94">
+      <c r="AN29" s="84">
         <f t="shared" si="6"/>
         <v>601.58934999999997</v>
       </c>
-      <c r="AO29" s="94">
+      <c r="AO29" s="84">
         <f t="shared" si="6"/>
         <v>620.26639999999998</v>
       </c>
-      <c r="AP29" s="94">
+      <c r="AP29" s="84">
         <f t="shared" si="6"/>
         <v>590.28895</v>
       </c>
-      <c r="AQ29" s="94">
+      <c r="AQ29" s="84">
         <f t="shared" si="6"/>
         <v>582.59839999999997</v>
       </c>
-      <c r="AS29" s="25">
+      <c r="AS29" s="24">
         <f>4053*365</f>
         <v>1479345</v>
       </c>
-      <c r="AT29" s="25">
+      <c r="AT29" s="24">
         <f>3985*365</f>
         <v>1454525</v>
       </c>
-      <c r="AU29" s="25">
+      <c r="AU29" s="24">
         <f>3833*365</f>
         <v>1399045</v>
       </c>
-      <c r="AV29" s="25">
+      <c r="AV29" s="24">
         <f>3952*365</f>
         <v>1442480</v>
       </c>
-      <c r="AW29" s="25">
+      <c r="AW29" s="24">
         <f>3761*365</f>
         <v>1372765</v>
       </c>
-      <c r="AX29" s="25">
+      <c r="AX29" s="24">
         <f>3712*365</f>
         <v>1354880</v>
       </c>
@@ -9373,10 +9355,10 @@
       <c r="N30">
         <v>42301000000</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" t="s">
         <v>80</v>
       </c>
       <c r="R30" s="20">
@@ -9486,14 +9468,14 @@
       <c r="N31" s="22">
         <v>257035000000</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" t="s">
         <v>138</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" t="s">
         <v>160</v>
       </c>
       <c r="R31" s="20"/>
-      <c r="S31" s="23">
+      <c r="S31">
         <v>1442.963</v>
       </c>
       <c r="T31" s="20">
@@ -9506,13 +9488,13 @@
         <v>910</v>
       </c>
       <c r="Y31" s="20"/>
-      <c r="Z31" s="23">
+      <c r="Z31">
         <v>3219.7159999999999</v>
       </c>
-      <c r="AA31" s="23">
+      <c r="AA31">
         <v>3040.2930000000001</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB31">
         <v>2473.2730000000001</v>
       </c>
       <c r="AC31">
@@ -9546,7 +9528,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AN31" s="23">
+      <c r="AN31">
         <v>398915.81</v>
       </c>
       <c r="AO31">
@@ -9555,20 +9537,20 @@
       <c r="AP31">
         <v>349281.99200000003</v>
       </c>
-      <c r="AQ31" s="25">
+      <c r="AQ31" s="24">
         <v>349281.99200000003</v>
       </c>
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
-      <c r="AV31" s="24">
+      <c r="AV31" s="23">
         <f>AO31*0.7/(309/1.6)</f>
         <v>1577.2225584466019</v>
       </c>
-      <c r="AW31" s="24">
+      <c r="AW31" s="23">
         <f>AP31*0.7/(301/1.6)</f>
         <v>1299.6539237209302</v>
       </c>
-      <c r="AX31" s="24">
+      <c r="AX31" s="23">
         <f>AQ31*0.7/(289/1.6)</f>
         <v>1353.6187925259514</v>
       </c>
@@ -9615,10 +9597,10 @@
       <c r="N32">
         <v>40960299959.761497</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" t="s">
         <v>80</v>
       </c>
       <c r="Q32">
@@ -9745,33 +9727,33 @@
       <c r="N33">
         <v>235194000000</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" t="s">
         <v>386</v>
       </c>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
-      <c r="T33" s="23">
+      <c r="T33">
         <v>1589700</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33">
         <v>1214124</v>
       </c>
-      <c r="V33" s="23">
+      <c r="V33">
         <v>1252906</v>
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
-      <c r="AA33" s="23">
+      <c r="AA33">
         <v>3721875</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AB33">
         <v>2599822</v>
       </c>
-      <c r="AC33" s="23">
+      <c r="AC33">
         <v>2150694</v>
       </c>
       <c r="AE33" s="19" t="str">
@@ -9802,24 +9784,24 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO33" s="23">
+      <c r="AO33">
         <v>249384317</v>
       </c>
-      <c r="AP33" s="23">
+      <c r="AP33">
         <v>296411327</v>
       </c>
-      <c r="AQ33" s="29">
+      <c r="AQ33" s="24">
         <v>296411327</v>
       </c>
-      <c r="AV33" s="24">
+      <c r="AV33" s="23">
         <f>AO33*0.85/293</f>
         <v>723469.86160409555</v>
       </c>
-      <c r="AW33" s="24">
+      <c r="AW33" s="23">
         <f>AP33*0.85/280</f>
         <v>899820.09982142854</v>
       </c>
-      <c r="AX33" s="24">
+      <c r="AX33" s="23">
         <f>AQ33*0.85/265</f>
         <v>950753.31301886786</v>
       </c>
@@ -9868,10 +9850,10 @@
       <c r="N34">
         <v>13397913513.7817</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="23" t="s">
+      <c r="P34" t="s">
         <v>98</v>
       </c>
       <c r="Q34">
@@ -10120,10 +10102,10 @@
       <c r="N36">
         <v>141752000000</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" t="s">
         <v>138</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" t="s">
         <v>59</v>
       </c>
       <c r="R36">
@@ -10599,7 +10581,7 @@
       <c r="D40" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="28" t="s">
         <v>196</v>
       </c>
       <c r="F40" t="s">
@@ -11011,10 +10993,10 @@
       <c r="N43">
         <v>18344666000</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" t="s">
         <v>58</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" t="s">
         <v>98</v>
       </c>
       <c r="Q43">
@@ -11149,10 +11131,10 @@
       <c r="N44">
         <v>11024300000</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" t="s">
         <v>58</v>
       </c>
-      <c r="P44" s="23" t="s">
+      <c r="P44" t="s">
         <v>80</v>
       </c>
       <c r="Q44" s="20">
@@ -11213,23 +11195,23 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AS44" s="31">
+      <c r="AS44" s="29">
         <f>27386150+337284+9430179+1135+58481+1356185+7487+317670+11610944</f>
         <v>50505515</v>
       </c>
-      <c r="AT44" s="31">
+      <c r="AT44" s="29">
         <f>31026112+283323+8304127+777+39306+1494512+5994+322935+11280342</f>
         <v>52757428</v>
       </c>
-      <c r="AU44" s="31">
+      <c r="AU44" s="29">
         <f>30506684+465026+10655278+4344+34495+1129399+5996+277653+11385085</f>
         <v>54463960</v>
       </c>
-      <c r="AV44" s="31">
+      <c r="AV44" s="29">
         <f>25067412+190452+9189864+4488+52483+1978567+7145+276564+11751484</f>
         <v>48518459</v>
       </c>
-      <c r="AW44" s="31">
+      <c r="AW44" s="29">
         <f>26746679+224926+7717598+760+62669+1795659+9332+269579+11586013</f>
         <v>48413215</v>
       </c>
@@ -11527,10 +11509,10 @@
       <c r="N47">
         <v>68553124892.036598</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="O47" t="s">
         <v>58</v>
       </c>
-      <c r="P47" s="23" t="s">
+      <c r="P47" t="s">
         <v>98</v>
       </c>
       <c r="Q47">
@@ -12215,19 +12197,19 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AN52" s="94">
+      <c r="AN52" s="84">
         <f>AU52*0.43</f>
         <v>3751.105</v>
       </c>
-      <c r="AO52" s="94">
+      <c r="AO52" s="84">
         <f t="shared" ref="AO52:AQ52" si="9">AV52*0.43</f>
         <v>3625.5450000000001</v>
       </c>
-      <c r="AP52" s="94">
+      <c r="AP52" s="84">
         <f t="shared" si="9"/>
         <v>3390.1200000000003</v>
       </c>
-      <c r="AQ52" s="94">
+      <c r="AQ52" s="84">
         <f t="shared" si="9"/>
         <v>3374.4249999999997</v>
       </c>
@@ -12483,7 +12465,7 @@
         <v>68</v>
       </c>
       <c r="AK54" s="19"/>
-      <c r="AL54" s="86">
+      <c r="AL54" s="77">
         <f>186+87+1318+582+736</f>
         <v>2909</v>
       </c>
@@ -12507,7 +12489,7 @@
         <f>147+136+6+1010+380+630</f>
         <v>2309</v>
       </c>
-      <c r="AS54" s="86">
+      <c r="AS54" s="77">
         <v>21.44</v>
       </c>
       <c r="AT54">
@@ -12694,10 +12676,10 @@
       <c r="N56">
         <v>8275765000</v>
       </c>
-      <c r="O56" s="23" t="s">
+      <c r="O56" t="s">
         <v>58</v>
       </c>
-      <c r="P56" s="23" t="s">
+      <c r="P56" t="s">
         <v>98</v>
       </c>
       <c r="Q56">
@@ -12791,7 +12773,7 @@
       <c r="I57">
         <v>2019</v>
       </c>
-      <c r="J57" s="32">
+      <c r="J57" s="30">
         <v>50030000000</v>
       </c>
       <c r="K57">
@@ -12916,7 +12898,7 @@
       <c r="I58">
         <v>2019</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="31">
         <v>590000000</v>
       </c>
       <c r="K58">
@@ -12931,10 +12913,10 @@
       <c r="N58">
         <v>14842991000</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" t="s">
         <v>58</v>
       </c>
-      <c r="P58" s="23" t="s">
+      <c r="P58" t="s">
         <v>98</v>
       </c>
       <c r="Q58">
@@ -13043,7 +13025,7 @@
       <c r="I59">
         <v>2019</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="31">
         <v>352130000</v>
       </c>
       <c r="K59">
@@ -13058,10 +13040,10 @@
       <c r="N59">
         <v>12935533000</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" t="s">
         <v>58</v>
       </c>
-      <c r="P59" s="23" t="s">
+      <c r="P59" t="s">
         <v>98</v>
       </c>
       <c r="Q59">
@@ -13170,7 +13152,7 @@
       <c r="I60" s="3">
         <v>44561</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="22">
         <v>1061000000000</v>
       </c>
       <c r="K60" s="22">
@@ -13186,10 +13168,10 @@
       <c r="N60" s="22">
         <v>62131000000</v>
       </c>
-      <c r="O60" s="23" t="s">
+      <c r="O60" t="s">
         <v>138</v>
       </c>
-      <c r="P60" s="23" t="s">
+      <c r="P60" t="s">
         <v>86</v>
       </c>
       <c r="R60">
@@ -13346,10 +13328,10 @@
       <c r="N61">
         <v>1085200000</v>
       </c>
-      <c r="O61" s="23" t="s">
+      <c r="O61" t="s">
         <v>58</v>
       </c>
-      <c r="P61" s="23" t="s">
+      <c r="P61" t="s">
         <v>98</v>
       </c>
       <c r="Q61">
@@ -13472,10 +13454,10 @@
       <c r="N62" s="22">
         <v>484660000000</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="O62" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="23" t="s">
+      <c r="P62" t="s">
         <v>86</v>
       </c>
       <c r="S62">
@@ -13535,20 +13517,20 @@
       <c r="AP62">
         <v>341.35</v>
       </c>
-      <c r="AT62" s="24"/>
-      <c r="AU62" s="24">
+      <c r="AT62" s="23"/>
+      <c r="AU62" s="23">
         <f>AN62*0.85*1000/(150)</f>
         <v>2351.1566666666668</v>
       </c>
-      <c r="AV62" s="24">
+      <c r="AV62" s="23">
         <f>AO62*0.85*1000/(140)</f>
         <v>2416.0642857142852</v>
       </c>
-      <c r="AW62" s="24">
+      <c r="AW62" s="23">
         <f>AP62*0.85*1000/(130)</f>
         <v>2231.9038461538466</v>
       </c>
-      <c r="AX62" s="24"/>
+      <c r="AX62" s="23"/>
     </row>
     <row r="63" spans="1:50">
       <c r="A63" t="s">
@@ -13593,10 +13575,10 @@
       <c r="N63">
         <v>11608000000</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" t="s">
         <v>58</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P63" t="s">
         <v>98</v>
       </c>
       <c r="Q63">
@@ -13707,10 +13689,10 @@
       <c r="N64">
         <v>17111600000</v>
       </c>
-      <c r="O64" s="23" t="s">
+      <c r="O64" t="s">
         <v>138</v>
       </c>
-      <c r="P64" s="23" t="s">
+      <c r="P64" t="s">
         <v>271</v>
       </c>
       <c r="T64">
@@ -14403,26 +14385,18 @@
     </row>
     <row r="72" spans="1:49">
       <c r="E72"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="1:49">
       <c r="E73"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="1:49">
       <c r="E74"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
     </row>
     <row r="75" spans="1:49">
       <c r="E75"/>
     </row>
     <row r="76" spans="1:49">
       <c r="E76"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -14438,7 +14412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
@@ -14450,10 +14424,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -14473,31 +14447,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -14515,33 +14489,33 @@
         <f>'ITR input data'!D2</f>
         <v>FR</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <f>'ITR input data'!AE2/'ITR input data'!AS2</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K2" s="40" t="str">
+      <c r="K2" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2030</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>0.5</v>
       </c>
     </row>
@@ -14559,121 +14533,121 @@
         <f>'ITR input data'!D3</f>
         <v>FR</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
         <v>2016</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="38">
         <f>'ITR input data'!AE3/'ITR input data'!AS3</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K3" s="40" t="str">
+      <c r="K3" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
       <c r="L3">
         <v>2030</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>390</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="30" t="str">
+      <c r="D4" s="28" t="str">
         <f>'ITR input data'!D4</f>
         <v>FR</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="88">
         <v>2050</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="88">
         <v>2019</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="88">
         <v>2016</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="89">
         <f>'ITR input data'!AE4/'ITR input data'!AS4</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K4" s="40" t="str">
+      <c r="K4" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="88">
         <v>2030</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="90">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>391</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="28" t="str">
         <f>'ITR input data'!D5</f>
         <v>FR</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="88">
         <v>2050</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="88">
         <v>2019</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="88">
         <v>2016</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="89">
         <f>'ITR input data'!AE5/'ITR input data'!AS5</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K5" s="40" t="str">
+      <c r="K5" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="88">
         <v>2030</v>
       </c>
-      <c r="M5" s="101">
+      <c r="M5" s="90">
         <v>0.5</v>
       </c>
     </row>
@@ -14691,33 +14665,33 @@
         <f>'ITR input data'!D2</f>
         <v>FR</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="88">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="37">
         <v>2019</v>
       </c>
       <c r="I6">
         <v>2016</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <f>'ITR input data'!AL2/'ITR input data'!AS2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="40" t="str">
+      <c r="K6" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="37">
         <v>2030</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14735,121 +14709,121 @@
         <f>'ITR input data'!D3</f>
         <v>FR</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="88">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="37">
         <v>2019</v>
       </c>
       <c r="I7">
         <v>2016</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <f>'ITR input data'!AL3/'ITR input data'!AS3</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K7" s="40" t="str">
+      <c r="K7" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>390</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D8" t="str">
         <f>'ITR input data'!D4</f>
         <v>FR</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="88">
         <v>2050</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="88">
         <v>2019</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="88">
         <v>2016</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <f>'ITR input data'!AL4/'ITR input data'!AS4</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K8" s="40" t="str">
+      <c r="K8" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="88">
         <v>2030</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D9" t="str">
         <f>'ITR input data'!D5</f>
         <v>FR</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="88">
         <v>2050</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="88">
         <v>2019</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="88">
         <v>2016</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="38">
         <f>'ITR input data'!AL5/'ITR input data'!AS5</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K9" s="40" t="str">
+      <c r="K9" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="88">
         <v>2030</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="90">
         <v>0.25</v>
       </c>
     </row>
@@ -14866,31 +14840,31 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>2035</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="88">
         <v>2021</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>2015</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -14907,31 +14881,31 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>2035</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G11" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="88">
         <v>2021</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2015</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="38">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L11">
         <v>2025</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -14948,31 +14922,31 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>2035</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G12" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="88">
         <v>2021</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>2015</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="38">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L12">
         <v>2025</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -15001,10 +14975,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -15024,31 +14998,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -15056,40 +15030,40 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <v>0.67400000000000004</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2040</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>1</v>
       </c>
     </row>
@@ -15106,7 +15080,7 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
       <c r="F3" t="s">
@@ -15115,7 +15089,7 @@
       <c r="G3" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
@@ -15130,7 +15104,7 @@
       <c r="L3">
         <v>2050</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15147,16 +15121,16 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>2050</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>296</v>
       </c>
       <c r="G4" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>2019</v>
       </c>
       <c r="I4">
@@ -15171,7 +15145,7 @@
       <c r="L4">
         <v>2030</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -15191,26 +15165,26 @@
       <c r="E5" s="18">
         <v>2050</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>297</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
         <v>2005</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>10178945</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="18">
         <v>2050</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -15227,16 +15201,16 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>296</v>
       </c>
       <c r="G6" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>2005</v>
       </c>
       <c r="J6">
@@ -15249,7 +15223,7 @@
       <c r="L6">
         <v>2030</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15266,28 +15240,28 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>299</v>
       </c>
       <c r="G7" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>2005</v>
       </c>
       <c r="J7" s="20">
         <v>38113792</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15304,28 +15278,28 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>2050</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>299</v>
       </c>
       <c r="G8" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>2005</v>
       </c>
       <c r="J8" s="20">
         <v>38113792</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L8">
         <v>2040</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="40">
         <v>0.85</v>
       </c>
     </row>
@@ -15342,28 +15316,28 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>2050</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G9" t="s">
         <v>302</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>2000</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>167000000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L9">
         <v>2030</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15380,28 +15354,28 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>2035</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G10" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>2015</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -15418,28 +15392,28 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>2035</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G11" t="s">
         <v>302</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2015</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="38">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L11">
         <v>2025</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -15456,25 +15430,25 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G12" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>2005</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L12">
         <v>2030</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -15491,25 +15465,25 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G13" t="s">
         <v>302</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>2005</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L13">
         <v>2040</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -15526,10 +15500,10 @@
       <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2050</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G14" t="s">
@@ -15538,7 +15512,7 @@
       <c r="H14">
         <v>2021</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>2019</v>
       </c>
       <c r="J14">
@@ -15550,7 +15524,7 @@
       <c r="L14">
         <v>2030</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15567,10 +15541,10 @@
       <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>2050</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G15" t="s">
@@ -15579,19 +15553,19 @@
       <c r="H15">
         <v>2021</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>2019</v>
       </c>
       <c r="J15">
         <v>834562</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L15">
         <v>2030</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15608,10 +15582,10 @@
       <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>2050</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G16" t="s">
@@ -15620,20 +15594,20 @@
       <c r="H16">
         <v>2021</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>2019</v>
       </c>
       <c r="J16" t="e">
         <f>'ITR input data'!AH40+'ITR input data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L16">
         <v>2030</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15650,26 +15624,26 @@
       <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G17" t="s">
         <v>297</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>2020</v>
       </c>
       <c r="J17">
         <f>0.292832151/0.141</f>
         <v>2.0768237659574469</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L17">
         <v>2050</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -15686,7 +15660,7 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G18" t="s">
@@ -15695,19 +15669,19 @@
       <c r="H18">
         <v>2021</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>2017</v>
       </c>
       <c r="J18">
         <v>73.8</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L18">
         <v>2028</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="40">
         <f>73.8/71-1</f>
         <v>3.9436619718309807E-2</v>
       </c>
@@ -15725,7 +15699,7 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G19" t="s">
@@ -15734,20 +15708,20 @@
       <c r="H19">
         <v>2021</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>2017</v>
       </c>
       <c r="J19">
         <f>36830868.09/90796200</f>
         <v>0.40564327681114409</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L19">
         <v>2030</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -15773,7 +15747,7 @@
       <c r="H20">
         <v>2020</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>2005</v>
       </c>
       <c r="J20">
@@ -15785,7 +15759,7 @@
       <c r="L20">
         <v>2040</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15802,7 +15776,7 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G21" t="s">
@@ -15811,19 +15785,19 @@
       <c r="H21">
         <v>2021</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <v>2019</v>
       </c>
       <c r="J21">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L21">
         <v>2030</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -15840,28 +15814,28 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>2050</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>2011</v>
       </c>
       <c r="J22">
         <v>24000000</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L22">
         <v>2030</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -15878,10 +15852,10 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>2040</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G23" t="s">
@@ -15890,7 +15864,7 @@
       <c r="H23">
         <v>2021</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <v>2020</v>
       </c>
       <c r="J23">
@@ -15902,7 +15876,7 @@
       <c r="L23">
         <v>2040</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15919,10 +15893,10 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>2050</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G24" t="s">
@@ -15931,19 +15905,19 @@
       <c r="H24">
         <v>2017</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>2005</v>
       </c>
       <c r="J24">
         <v>37700000</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L24">
         <v>2030</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15960,10 +15934,10 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>2050</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G25" t="s">
@@ -15972,19 +15946,19 @@
       <c r="H25">
         <v>2017</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>2005</v>
       </c>
       <c r="J25">
         <v>37700000</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L25">
         <v>2040</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16001,28 +15975,28 @@
       <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>2050</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G26" t="s">
         <v>302</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>2005</v>
       </c>
       <c r="J26">
         <v>59.347999999999999</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L26">
         <v>2030</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="40">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -16039,28 +16013,28 @@
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>2050</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G27" t="s">
         <v>302</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>2005</v>
       </c>
       <c r="J27">
         <v>153000000</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L27">
         <v>2030</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16077,10 +16051,10 @@
       <c r="D28" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>2050</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G28" t="s">
@@ -16089,19 +16063,19 @@
       <c r="H28">
         <v>2020</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>2017</v>
       </c>
       <c r="J28">
         <v>51</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L28">
         <v>2023</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -16118,10 +16092,10 @@
       <c r="D29" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>2050</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G29" t="s">
@@ -16130,19 +16104,19 @@
       <c r="H29">
         <v>2020</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <v>2019</v>
       </c>
       <c r="J29">
         <v>119</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L29">
         <v>2023</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="40">
         <v>0.08</v>
       </c>
     </row>
@@ -16159,10 +16133,10 @@
       <c r="D30" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>2050</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G30" t="s">
@@ -16171,19 +16145,19 @@
       <c r="H30">
         <v>2020</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <v>2017</v>
       </c>
       <c r="J30">
         <v>51</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L30">
         <v>2030</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16200,10 +16174,10 @@
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>2050</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G31" t="s">
@@ -16212,19 +16186,19 @@
       <c r="H31">
         <v>2020</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>2019</v>
       </c>
       <c r="J31">
         <v>119</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L31">
         <v>2030</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="40">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -16241,10 +16215,10 @@
       <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>2045</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G32" t="s">
@@ -16253,10 +16227,10 @@
       <c r="H32">
         <v>2021</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>2018</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="43">
         <f>1.1+1.2+0*15.8</f>
         <v>2.2999999999999998</v>
       </c>
@@ -16266,7 +16240,7 @@
       <c r="L32">
         <v>2045</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16283,10 +16257,10 @@
       <c r="D33" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>2030</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G33" t="s">
@@ -16295,19 +16269,19 @@
       <c r="H33">
         <v>2020</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>2017</v>
       </c>
       <c r="J33">
         <v>125</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="37" t="s">
         <v>307</v>
       </c>
       <c r="L33">
         <v>2030</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16324,10 +16298,10 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>2050</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G34" t="s">
@@ -16336,19 +16310,19 @@
       <c r="H34">
         <v>2020</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>2000</v>
       </c>
       <c r="J34">
         <v>49960899</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L34">
         <v>2050</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16365,10 +16339,10 @@
       <c r="D35" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>2050</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G35" t="s">
@@ -16377,19 +16351,19 @@
       <c r="H35">
         <v>2030</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>2000</v>
       </c>
       <c r="J35">
         <v>0.4826223</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L35">
         <v>2030</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16406,28 +16380,28 @@
       <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>2045</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G36" t="s">
         <v>302</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
         <v>2005</v>
       </c>
       <c r="J36" s="20">
         <v>48455198</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L36">
         <v>2030</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16444,10 +16418,10 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <v>2030</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G37" t="s">
@@ -16456,19 +16430,19 @@
       <c r="H37">
         <v>2019</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="31">
         <v>2018</v>
       </c>
       <c r="J37">
         <v>828107</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L37">
         <v>2030</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16485,10 +16459,10 @@
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>2050</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G38" t="s">
@@ -16497,19 +16471,19 @@
       <c r="H38">
         <v>2021</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="31">
         <v>2015</v>
       </c>
       <c r="J38">
         <v>1100</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="37" t="s">
         <v>138</v>
       </c>
       <c r="L38">
         <v>2030</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16526,10 +16500,10 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="28">
         <v>2050</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G39" t="s">
@@ -16538,19 +16512,19 @@
       <c r="H39">
         <v>2021</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>2016</v>
       </c>
       <c r="J39">
         <v>125</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L39">
         <v>2025</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -16567,7 +16541,7 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G40" t="s">
@@ -16576,19 +16550,19 @@
       <c r="H40">
         <v>2015</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>2005</v>
       </c>
       <c r="J40">
         <v>86403130</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L40">
         <v>2045</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="40">
         <v>0.62</v>
       </c>
     </row>
@@ -16605,7 +16579,7 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G41" t="s">
@@ -16614,19 +16588,19 @@
       <c r="H41">
         <v>2021</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>2019</v>
       </c>
       <c r="J41">
         <v>309</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="37" t="s">
         <v>308</v>
       </c>
       <c r="L41">
         <v>2035</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16643,7 +16617,7 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G42" t="s">
@@ -16652,19 +16626,19 @@
       <c r="H42">
         <v>2021</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>2019</v>
       </c>
       <c r="J42">
         <v>3480</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L42">
         <v>2035</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="40">
         <v>0.76</v>
       </c>
     </row>
@@ -16681,7 +16655,7 @@
       <c r="D43" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G43" t="s">
@@ -16690,60 +16664,60 @@
       <c r="H43">
         <v>2020</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="31">
         <v>2019</v>
       </c>
       <c r="J43" s="20">
         <v>11925000</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L43">
         <v>2035</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="40">
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="93" customFormat="1">
-      <c r="A44" s="86" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="79">
         <v>2040</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="G44" s="86" t="s">
+      <c r="G44" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="H44" s="86">
+      <c r="H44" s="77">
         <v>2021</v>
       </c>
-      <c r="I44" s="89">
+      <c r="I44" s="80">
         <v>2020</v>
       </c>
-      <c r="J44" s="90">
+      <c r="J44" s="81">
         <v>309</v>
       </c>
-      <c r="K44" s="91" t="s">
+      <c r="K44" s="82" t="s">
         <v>308</v>
       </c>
-      <c r="L44" s="86">
+      <c r="L44" s="77">
         <v>2040</v>
       </c>
-      <c r="M44" s="92">
+      <c r="M44" s="83">
         <v>0.2</v>
       </c>
     </row>
@@ -16760,10 +16734,10 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <v>2040</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G45" t="s">
@@ -16772,19 +16746,19 @@
       <c r="H45">
         <v>2021</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <v>2020</v>
       </c>
       <c r="J45" s="20">
         <v>3813946</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L45">
         <v>2040</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16801,10 +16775,10 @@
       <c r="D46" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>2050</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G46" t="s">
@@ -16813,19 +16787,19 @@
       <c r="H46">
         <v>2022</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <v>2020</v>
       </c>
       <c r="J46">
         <v>0.93</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="37" t="s">
         <v>305</v>
       </c>
       <c r="L46">
         <v>2031</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="40">
         <v>0.108</v>
       </c>
     </row>
@@ -16842,7 +16816,7 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G47" t="s">
@@ -16851,19 +16825,19 @@
       <c r="H47">
         <v>2020</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>2010</v>
       </c>
       <c r="J47">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L47">
         <v>2030</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -16880,10 +16854,10 @@
       <c r="D48" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="28">
         <v>2050</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G48" t="s">
@@ -16892,19 +16866,19 @@
       <c r="H48">
         <v>2022</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <v>2021</v>
       </c>
       <c r="J48">
         <v>96</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="37" t="s">
         <v>307</v>
       </c>
       <c r="L48">
         <v>2030</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="40">
         <f>50/96</f>
         <v>0.52083333333333337</v>
       </c>
@@ -16922,26 +16896,26 @@
       <c r="D49" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G49" t="s">
         <v>297</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="31">
         <v>2000</v>
       </c>
       <c r="J49">
         <f>2650/2000</f>
         <v>1.325</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="37" t="s">
         <v>298</v>
       </c>
       <c r="L49">
         <v>2030</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16958,7 +16932,7 @@
       <c r="D50" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>2050</v>
       </c>
       <c r="F50" t="s">
@@ -16983,7 +16957,7 @@
       <c r="L50">
         <v>2030</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17000,7 +16974,7 @@
       <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <v>2050</v>
       </c>
       <c r="F51" t="s">
@@ -17025,7 +16999,7 @@
       <c r="L51">
         <v>2040</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -17042,10 +17016,10 @@
       <c r="D52" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>2050</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G52" t="s">
@@ -17060,13 +17034,13 @@
       <c r="J52">
         <v>843</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="37" t="s">
         <v>309</v>
       </c>
       <c r="L52">
         <v>2025</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="40">
         <v>0.67</v>
       </c>
     </row>
@@ -17083,7 +17057,7 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>2050</v>
       </c>
       <c r="F53" t="s">
@@ -17108,7 +17082,7 @@
       <c r="L53">
         <v>2030</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -17125,10 +17099,10 @@
       <c r="D54" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>2050</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G54" t="s">
@@ -17137,7 +17111,7 @@
       <c r="H54">
         <v>2019</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="31">
         <v>2010</v>
       </c>
       <c r="J54" s="20">
@@ -17149,24 +17123,24 @@
       <c r="L54">
         <v>2045</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="40">
         <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="23" t="s">
+      <c r="A55" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" t="s">
         <v>194</v>
       </c>
       <c r="D55" t="s">
         <v>195</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <v>2050</v>
       </c>
       <c r="F55" t="s">
@@ -17190,7 +17164,7 @@
       <c r="L55">
         <v>2030</v>
       </c>
-      <c r="M55" s="43">
+      <c r="M55" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17228,7 +17202,7 @@
       <c r="L56">
         <v>2030</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -17245,7 +17219,7 @@
       <c r="D57" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G57" t="s">
@@ -17254,7 +17228,7 @@
       <c r="H57">
         <v>2018</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="31">
         <v>2005</v>
       </c>
       <c r="J57" s="20">
@@ -17266,7 +17240,7 @@
       <c r="L57">
         <v>2030</v>
       </c>
-      <c r="M57" s="43">
+      <c r="M57" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17283,7 +17257,7 @@
       <c r="D58" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G58" t="s">
@@ -17292,7 +17266,7 @@
       <c r="H58">
         <v>2018</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <v>2005</v>
       </c>
       <c r="J58" s="20">
@@ -17304,7 +17278,7 @@
       <c r="L58">
         <v>2050</v>
       </c>
-      <c r="M58" s="43">
+      <c r="M58" s="40">
         <v>0.95</v>
       </c>
     </row>
@@ -17321,10 +17295,10 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="28">
         <v>2045</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G59" t="s">
@@ -17333,7 +17307,7 @@
       <c r="H59">
         <v>2021</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>2016</v>
       </c>
       <c r="J59">
@@ -17345,7 +17319,7 @@
       <c r="L59">
         <v>2045</v>
       </c>
-      <c r="M59" s="43">
+      <c r="M59" s="40">
         <v>1</v>
       </c>
     </row>
@@ -17362,10 +17336,10 @@
       <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>2040</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G60" t="s">
@@ -17374,10 +17348,10 @@
       <c r="H60">
         <v>2019</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <v>2005</v>
       </c>
-      <c r="J60" s="47">
+      <c r="J60" s="44">
         <v>6976930.1319702603</v>
       </c>
       <c r="K60" t="s">
@@ -17386,7 +17360,7 @@
       <c r="L60">
         <v>2040</v>
       </c>
-      <c r="M60" s="43">
+      <c r="M60" s="40">
         <v>1</v>
       </c>
     </row>
@@ -17403,10 +17377,10 @@
       <c r="D61" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <v>2050</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G61" t="s">
@@ -17415,7 +17389,7 @@
       <c r="H61">
         <v>2020</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="31">
         <v>2017</v>
       </c>
       <c r="J61">
@@ -17427,7 +17401,7 @@
       <c r="L61">
         <v>2030</v>
       </c>
-      <c r="M61" s="43">
+      <c r="M61" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17444,10 +17418,10 @@
       <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>2050</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G62" t="s">
@@ -17456,7 +17430,7 @@
       <c r="H62">
         <v>2020</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>2017</v>
       </c>
       <c r="J62">
@@ -17468,7 +17442,7 @@
       <c r="L62">
         <v>2040</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17485,10 +17459,10 @@
       <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <v>2050</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G63" t="s">
@@ -17497,7 +17471,7 @@
       <c r="H63">
         <v>2021</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>2010</v>
       </c>
       <c r="J63" s="20">
@@ -17510,7 +17484,7 @@
       <c r="L63">
         <v>2035</v>
       </c>
-      <c r="M63" s="43">
+      <c r="M63" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -17527,10 +17501,10 @@
       <c r="D64" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="28">
         <v>2050</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G64" t="s">
@@ -17539,7 +17513,7 @@
       <c r="H64">
         <v>2021</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="31">
         <v>2010</v>
       </c>
       <c r="J64" s="20">
@@ -17552,7 +17526,7 @@
       <c r="L64">
         <v>2040</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17569,10 +17543,10 @@
       <c r="D65" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="28">
         <v>2050</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G65" t="s">
@@ -17581,10 +17555,10 @@
       <c r="H65">
         <v>2020</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <v>2005</v>
       </c>
-      <c r="J65" s="48">
+      <c r="J65" s="45">
         <v>16557441</v>
       </c>
       <c r="K65" t="s">
@@ -17593,7 +17567,7 @@
       <c r="L65">
         <v>2030</v>
       </c>
-      <c r="M65" s="43">
+      <c r="M65" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -17610,10 +17584,10 @@
       <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>2040</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G66" t="s">
@@ -17622,7 +17596,7 @@
       <c r="H66">
         <v>2020</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>2010</v>
       </c>
       <c r="J66">
@@ -17634,7 +17608,7 @@
       <c r="L66">
         <v>2030</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17651,10 +17625,10 @@
       <c r="D67" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="28">
         <v>2030</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G67" t="s">
@@ -17663,7 +17637,7 @@
       <c r="H67">
         <v>2021</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <v>2005</v>
       </c>
       <c r="J67" s="20">
@@ -17675,7 +17649,7 @@
       <c r="L67">
         <v>2030</v>
       </c>
-      <c r="M67" s="43">
+      <c r="M67" s="40">
         <v>1</v>
       </c>
     </row>
@@ -17692,7 +17666,7 @@
       <c r="D68" t="s">
         <v>231</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G68" t="s">
@@ -17701,7 +17675,7 @@
       <c r="H68">
         <v>2021</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <v>2018</v>
       </c>
       <c r="J68" s="20">
@@ -17713,7 +17687,7 @@
       <c r="L68">
         <v>2035</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -17730,10 +17704,10 @@
       <c r="D69" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <v>2050</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G69" t="s">
@@ -17742,10 +17716,10 @@
       <c r="H69">
         <v>2020</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>2019</v>
       </c>
-      <c r="J69" s="49">
+      <c r="J69" s="46">
         <v>0.80243130614229896</v>
       </c>
       <c r="K69" t="s">
@@ -17754,7 +17728,7 @@
       <c r="L69">
         <v>2030</v>
       </c>
-      <c r="M69" s="43">
+      <c r="M69" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17771,10 +17745,10 @@
       <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>2050</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G70" t="s">
@@ -17783,10 +17757,10 @@
       <c r="H70">
         <v>2021</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <v>2016</v>
       </c>
-      <c r="J70" s="49">
+      <c r="J70" s="46">
         <v>68</v>
       </c>
       <c r="K70" t="s">
@@ -17795,7 +17769,7 @@
       <c r="L70">
         <v>2030</v>
       </c>
-      <c r="M70" s="43">
+      <c r="M70" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17812,10 +17786,10 @@
       <c r="D71" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="28">
         <v>2050</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G71" t="s">
@@ -17824,10 +17798,10 @@
       <c r="H71">
         <v>2020</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>2007</v>
       </c>
-      <c r="J71" s="49">
+      <c r="J71" s="46">
         <v>0.98420553538837796</v>
       </c>
       <c r="K71" t="s">
@@ -17836,7 +17810,7 @@
       <c r="L71">
         <v>2030</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17853,10 +17827,10 @@
       <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>2050</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G72" t="s">
@@ -17865,7 +17839,7 @@
       <c r="H72">
         <v>2021</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>2018</v>
       </c>
       <c r="J72">
@@ -17877,7 +17851,7 @@
       <c r="L72">
         <v>2025</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17894,10 +17868,10 @@
       <c r="D73" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="28">
         <v>2050</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G73" t="s">
@@ -17906,7 +17880,7 @@
       <c r="H73">
         <v>2021</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <v>2018</v>
       </c>
       <c r="J73">
@@ -17918,7 +17892,7 @@
       <c r="L73">
         <v>2030</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17935,10 +17909,10 @@
       <c r="D74" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="28">
         <v>2050</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G74" t="s">
@@ -17947,10 +17921,10 @@
       <c r="H74">
         <v>2020</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <v>2019</v>
       </c>
-      <c r="J74" s="49">
+      <c r="J74" s="46">
         <v>0.46760301224943002</v>
       </c>
       <c r="K74" t="s">
@@ -17959,7 +17933,7 @@
       <c r="L74">
         <v>2030</v>
       </c>
-      <c r="M74" s="43">
+      <c r="M74" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17976,7 +17950,7 @@
       <c r="D75" t="s">
         <v>251</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G75" t="s">
@@ -17985,10 +17959,10 @@
       <c r="H75">
         <v>2021</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>2018</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="46">
         <v>2.9</v>
       </c>
       <c r="K75" t="s">
@@ -17997,7 +17971,7 @@
       <c r="L75">
         <v>2030</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -18014,7 +17988,7 @@
       <c r="D76" t="s">
         <v>251</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G76" t="s">
@@ -18023,10 +17997,10 @@
       <c r="H76">
         <v>2021</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <v>2018</v>
       </c>
-      <c r="J76" s="49">
+      <c r="J76" s="46">
         <v>1.69</v>
       </c>
       <c r="K76" t="s">
@@ -18035,7 +18009,7 @@
       <c r="L76">
         <v>2030</v>
       </c>
-      <c r="M76" s="43">
+      <c r="M76" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -18052,10 +18026,10 @@
       <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="28">
         <v>2050</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G77" t="s">
@@ -18064,10 +18038,10 @@
       <c r="H77">
         <v>2021</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="31">
         <v>2017</v>
       </c>
-      <c r="J77" s="49">
+      <c r="J77" s="46">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -18077,7 +18051,7 @@
       <c r="L77">
         <v>2030</v>
       </c>
-      <c r="M77" s="43">
+      <c r="M77" s="40">
         <v>0</v>
       </c>
     </row>
@@ -18094,7 +18068,7 @@
       <c r="D78" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G78" t="s">
@@ -18103,10 +18077,10 @@
       <c r="H78">
         <v>2021</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <v>2018</v>
       </c>
-      <c r="J78" s="49">
+      <c r="J78" s="46">
         <v>0.42172199999999999</v>
       </c>
       <c r="K78" t="s">
@@ -18115,7 +18089,7 @@
       <c r="L78">
         <v>2030</v>
       </c>
-      <c r="M78" s="43">
+      <c r="M78" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -18132,10 +18106,10 @@
       <c r="D79" t="s">
         <v>195</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="28">
         <v>2050</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G79" t="s">
@@ -18144,10 +18118,10 @@
       <c r="H79">
         <v>2020</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="31">
         <v>2020</v>
       </c>
-      <c r="J79" s="50">
+      <c r="J79" s="47">
         <v>130</v>
       </c>
       <c r="K79" t="s">
@@ -18156,7 +18130,7 @@
       <c r="L79">
         <v>2030</v>
       </c>
-      <c r="M79" s="51">
+      <c r="M79" s="48">
         <v>0.2</v>
       </c>
     </row>
@@ -18173,19 +18147,19 @@
       <c r="D80" t="s">
         <v>195</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="28">
         <v>2050</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G80" t="s">
         <v>297</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="31">
         <v>2020</v>
       </c>
-      <c r="J80" s="50">
+      <c r="J80" s="47">
         <v>4.9000000000000004</v>
       </c>
       <c r="K80" t="s">
@@ -18194,7 +18168,7 @@
       <c r="L80">
         <v>2030</v>
       </c>
-      <c r="M80" s="51">
+      <c r="M80" s="48">
         <v>0.2</v>
       </c>
     </row>
@@ -18211,7 +18185,7 @@
       <c r="D81" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G81" t="s">
@@ -18220,10 +18194,10 @@
       <c r="H81">
         <v>2020</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <v>2018</v>
       </c>
-      <c r="J81" s="49">
+      <c r="J81" s="46">
         <v>0.315911</v>
       </c>
       <c r="K81" t="s">
@@ -18232,7 +18206,7 @@
       <c r="L81">
         <v>2030</v>
       </c>
-      <c r="M81" s="43">
+      <c r="M81" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -18249,10 +18223,10 @@
       <c r="D82" t="s">
         <v>270</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="28">
         <v>2050</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G82" t="s">
@@ -18261,10 +18235,10 @@
       <c r="H82">
         <v>2021</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="31">
         <v>2015</v>
       </c>
-      <c r="J82" s="49">
+      <c r="J82" s="46">
         <v>1.8</v>
       </c>
       <c r="K82" t="s">
@@ -18273,7 +18247,7 @@
       <c r="L82">
         <v>2030</v>
       </c>
-      <c r="M82" s="43">
+      <c r="M82" s="40">
         <v>0.16</v>
       </c>
     </row>
@@ -18290,10 +18264,10 @@
       <c r="D83" t="s">
         <v>270</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="28">
         <v>2050</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G83" t="s">
@@ -18302,10 +18276,10 @@
       <c r="H83">
         <v>2021</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="31">
         <v>2015</v>
       </c>
-      <c r="J83" s="49">
+      <c r="J83" s="46">
         <v>3.7</v>
       </c>
       <c r="K83" t="s">
@@ -18314,49 +18288,49 @@
       <c r="L83">
         <v>2030</v>
       </c>
-      <c r="M83" s="43">
+      <c r="M83" s="40">
         <f>3.7/3.5-1</f>
         <v>5.7142857142857162E-2</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="49" t="s">
         <v>274</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="49">
         <v>2050</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F84" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="G84" s="52" t="s">
+      <c r="G84" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="49">
         <v>2020</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="49">
         <v>2005</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="49">
         <v>11.6416389602593</v>
       </c>
-      <c r="K84" s="52" t="s">
+      <c r="K84" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="49">
         <v>2050</v>
       </c>
-      <c r="M84" s="53">
+      <c r="M84" s="50">
         <v>1</v>
       </c>
     </row>
@@ -18373,10 +18347,10 @@
       <c r="D85" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="28">
         <v>2050</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="28" t="s">
         <v>299</v>
       </c>
       <c r="G85" t="s">
@@ -18385,7 +18359,7 @@
       <c r="H85">
         <v>2020</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="31">
         <v>2010</v>
       </c>
       <c r="J85">
@@ -18397,7 +18371,7 @@
       <c r="L85">
         <v>2030</v>
       </c>
-      <c r="M85" s="43">
+      <c r="M85" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -18414,10 +18388,10 @@
       <c r="D86" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="28">
         <v>2050</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G86" t="s">
@@ -18426,7 +18400,7 @@
       <c r="H86">
         <v>2020</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="31">
         <v>2005</v>
       </c>
       <c r="J86">
@@ -18438,7 +18412,7 @@
       <c r="L86">
         <v>2025</v>
       </c>
-      <c r="M86" s="43">
+      <c r="M86" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -18455,10 +18429,10 @@
       <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <v>2050</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G87" t="s">
@@ -18467,7 +18441,7 @@
       <c r="H87">
         <v>2020</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <v>2005</v>
       </c>
       <c r="J87">
@@ -18479,7 +18453,7 @@
       <c r="L87">
         <v>2030</v>
       </c>
-      <c r="M87" s="43">
+      <c r="M87" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -18496,10 +18470,10 @@
       <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>2050</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G88" t="s">
@@ -18508,10 +18482,10 @@
       <c r="H88">
         <v>2020</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <v>2018</v>
       </c>
-      <c r="J88" s="49">
+      <c r="J88" s="46">
         <v>0.315911</v>
       </c>
       <c r="K88" t="s">
@@ -18520,7 +18494,7 @@
       <c r="L88">
         <v>2030</v>
       </c>
-      <c r="M88" s="43">
+      <c r="M88" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -18537,10 +18511,10 @@
       <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="28">
         <v>2050</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="28" t="s">
         <v>296</v>
       </c>
       <c r="G89" t="s">
@@ -18549,10 +18523,10 @@
       <c r="H89">
         <v>2020</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="31">
         <v>2005</v>
       </c>
-      <c r="J89" s="49">
+      <c r="J89" s="46">
         <v>0.88086205923584704</v>
       </c>
       <c r="K89" t="s">
@@ -18561,7 +18535,7 @@
       <c r="L89">
         <v>2030</v>
       </c>
-      <c r="M89" s="43">
+      <c r="M89" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -18585,9 +18559,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="51" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -18595,1202 +18569,1202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="57" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="54" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:6" s="51" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A16" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="54" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:6" s="51" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A17" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="51" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" t="s">
         <v>350</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" t="s">
         <v>350</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="69" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" t="s">
         <v>350</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" t="s">
         <v>350</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="69" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" t="s">
         <v>350</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" t="s">
         <v>350</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" t="s">
         <v>350</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" t="s">
         <v>350</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="69" t="s">
         <v>359</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="69" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" t="s">
         <v>350</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" t="s">
         <v>350</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" t="s">
         <v>350</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="E42" t="s">
         <v>350</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" t="s">
         <v>350</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" t="s">
         <v>350</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="69" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" t="s">
         <v>350</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" t="s">
         <v>350</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="E48" t="s">
         <v>350</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" t="s">
         <v>350</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" t="s">
         <v>350</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" t="s">
         <v>370</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="E54" s="68" t="s">
+      <c r="E54" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="F54" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D55" s="69" t="s">
+      <c r="D55" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" t="s">
         <v>372</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="80">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="E56" s="65" t="s">
+      <c r="E56" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="112">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="84" t="s">
+      <c r="E57" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="32">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" t="s">
         <v>380</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" t="s">
         <v>372</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" t="s">
         <v>322</v>
       </c>
     </row>
@@ -19807,8 +19781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19832,7 +19806,7 @@
         <v>384</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19850,7 +19824,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E5" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>168609686</v>
+        <v>70701760</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19868,7 +19842,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>94923164</v>
+        <v>138413468</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19886,14 +19860,14 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>150718900</v>
+        <v>238751118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>391</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="87" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
@@ -19904,7 +19878,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>128648076</v>
+        <v>186474255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19922,7 +19896,7 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E8" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>86647635</v>
+        <v>262261935</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19940,7 +19914,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>53073076</v>
+        <v>99986250</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19958,7 +19932,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>128007040</v>
+        <v>266192015</v>
       </c>
     </row>
   </sheetData>
@@ -20017,7 +19991,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E66" ca="1" si="0">RANDBETWEEN(35000,250000)</f>
-        <v>193242</v>
+        <v>214215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -20035,7 +20009,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>126860</v>
+        <v>165514</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -20053,7 +20027,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>110869</v>
+        <v>107554</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -20071,7 +20045,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>211921</v>
+        <v>46216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -20089,7 +20063,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>59155</v>
+        <v>154361</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -20107,7 +20081,7 @@
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E8" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>165564825</v>
+        <v>220891902</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -20125,7 +20099,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>169574745</v>
+        <v>141074768</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -20143,7 +20117,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>165133</v>
+        <v>67694</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -20161,7 +20135,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>205152</v>
+        <v>40887</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -20179,7 +20153,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>208098</v>
+        <v>38774</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -20197,7 +20171,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>49408</v>
+        <v>97706</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -20215,7 +20189,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>220931</v>
+        <v>247128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -20233,7 +20207,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>206419</v>
+        <v>68910</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -20251,7 +20225,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>226369</v>
+        <v>95947</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -20269,7 +20243,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>151493</v>
+        <v>167755</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -20287,7 +20261,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>37347</v>
+        <v>198420</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -20305,7 +20279,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>166391</v>
+        <v>128406</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -20323,7 +20297,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>203076</v>
+        <v>56278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -20341,7 +20315,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>214185</v>
+        <v>229029</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -20359,7 +20333,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>202143</v>
+        <v>113560</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -20377,7 +20351,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>35990</v>
+        <v>227073</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -20395,7 +20369,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>203864</v>
+        <v>80466</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -20413,7 +20387,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>181139</v>
+        <v>77911</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -20431,7 +20405,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>177399</v>
+        <v>49038</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -20449,7 +20423,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>59849</v>
+        <v>59055</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -20467,7 +20441,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>151203</v>
+        <v>52239</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -20485,7 +20459,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>200441</v>
+        <v>231630</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -20503,7 +20477,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>73908</v>
+        <v>90621</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -20521,7 +20495,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>224240</v>
+        <v>99898</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -20539,7 +20513,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>70763</v>
+        <v>45724</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -20557,7 +20531,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>132645</v>
+        <v>191269</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -20575,7 +20549,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>203472</v>
+        <v>239097</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -20593,7 +20567,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>179789</v>
+        <v>70666</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -20611,7 +20585,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>135693</v>
+        <v>219368</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -20629,7 +20603,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>81841</v>
+        <v>72898</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -20647,7 +20621,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>223456</v>
+        <v>163044</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -20665,7 +20639,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>107518</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20683,7 +20657,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>239172</v>
+        <v>130192</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -20701,7 +20675,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>108192</v>
+        <v>215161</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20719,7 +20693,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>213826</v>
+        <v>61633</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20737,7 +20711,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>171363</v>
+        <v>64291</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20755,7 +20729,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>238406</v>
+        <v>76084</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20773,7 +20747,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>209546</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20791,7 +20765,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>143434</v>
+        <v>87557</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20809,7 +20783,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>95056</v>
+        <v>124387</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20827,7 +20801,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>89969</v>
+        <v>100117</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20845,7 +20819,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>90618</v>
+        <v>63990</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20863,7 +20837,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>76579</v>
+        <v>204422</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20881,7 +20855,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>145079</v>
+        <v>156380</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20899,7 +20873,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>235769</v>
+        <v>113292</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20917,7 +20891,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>88173</v>
+        <v>234411</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20935,7 +20909,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>92830</v>
+        <v>181340</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20953,7 +20927,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>115631</v>
+        <v>91265</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20971,7 +20945,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>61337</v>
+        <v>82305</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20989,7 +20963,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>59148</v>
+        <v>90090</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -21007,7 +20981,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>128979</v>
+        <v>85115</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -21025,7 +20999,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>156114</v>
+        <v>74086</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -21043,7 +21017,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>117892</v>
+        <v>75243</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -21061,7 +21035,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>148733</v>
+        <v>53512</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -21079,7 +21053,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>172870</v>
+        <v>159611</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -21097,7 +21071,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>188593</v>
+        <v>208356</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -21115,7 +21089,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>106509</v>
+        <v>173592</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -21133,7 +21107,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>132189</v>
+        <v>95987</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -21151,7 +21125,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>206056</v>
+        <v>130862</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -21169,7 +21143,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>111060</v>
+        <v>184312</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -21187,7 +21161,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E69" ca="1" si="2">RANDBETWEEN(35000,250000)</f>
-        <v>108817</v>
+        <v>114153</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -21205,7 +21179,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>164602</v>
+        <v>41173</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -21223,7 +21197,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>120283</v>
+        <v>65959</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/20220927 ITR Tool Test Data.xlsx
+++ b/examples/data/20220927 ITR Tool Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68358E9B-BA50-B241-87F3-4966BBFE735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5319E-3191-8E4C-93C7-E41165A1EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="77140" windowHeight="31860" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="43240" windowHeight="31860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="AT6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{761CBD8A-501A-504B-AB1B-A55C5BB16672}">
+    <comment ref="AU6" authorId="0" shapeId="0" xr:uid="{761CBD8A-501A-504B-AB1B-A55C5BB16672}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{87C76978-2E92-454C-9228-2A19D8E06C22}">
+    <comment ref="AV6" authorId="0" shapeId="0" xr:uid="{87C76978-2E92-454C-9228-2A19D8E06C22}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{130DC316-804F-7541-9C87-4870EAF1A6F6}">
+    <comment ref="AW6" authorId="0" shapeId="0" xr:uid="{130DC316-804F-7541-9C87-4870EAF1A6F6}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{E987B55C-EB00-FA4E-8CE1-71A118A0FF17}">
+    <comment ref="AX6" authorId="0" shapeId="0" xr:uid="{E987B55C-EB00-FA4E-8CE1-71A118A0FF17}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT3" authorId="0" shapeId="0" xr:uid="{27FA3010-13C1-DC40-8B59-25A71AA35F05}">
+    <comment ref="AT7" authorId="0" shapeId="0" xr:uid="{27FA3010-13C1-DC40-8B59-25A71AA35F05}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU3" authorId="0" shapeId="0" xr:uid="{0B06AAB8-1777-DD40-ACE2-EDB803638737}">
+    <comment ref="AU7" authorId="0" shapeId="0" xr:uid="{0B06AAB8-1777-DD40-ACE2-EDB803638737}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV3" authorId="0" shapeId="0" xr:uid="{801285E1-E2DF-1148-A716-99497AB21411}">
+    <comment ref="AV7" authorId="0" shapeId="0" xr:uid="{801285E1-E2DF-1148-A716-99497AB21411}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW3" authorId="0" shapeId="0" xr:uid="{1E090C53-B6B1-FC49-B73F-C9DB47A48933}">
+    <comment ref="AW7" authorId="0" shapeId="0" xr:uid="{1E090C53-B6B1-FC49-B73F-C9DB47A48933}">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX3" authorId="0" shapeId="0" xr:uid="{5CD86015-A9FB-2E48-B50F-B4796E1288E8}">
+    <comment ref="AX7" authorId="0" shapeId="0" xr:uid="{5CD86015-A9FB-2E48-B50F-B4796E1288E8}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{10CE8AAD-83E4-3F48-A5D9-28FA677205F6}">
+    <comment ref="AT8" authorId="0" shapeId="0" xr:uid="{10CE8AAD-83E4-3F48-A5D9-28FA677205F6}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU4" authorId="0" shapeId="0" xr:uid="{64282D69-0044-5D4F-85DF-D113CEFC5D26}">
+    <comment ref="AU8" authorId="0" shapeId="0" xr:uid="{64282D69-0044-5D4F-85DF-D113CEFC5D26}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV4" authorId="0" shapeId="0" xr:uid="{4BE9897A-8852-6B40-895A-4AD9308CE01E}">
+    <comment ref="AV8" authorId="0" shapeId="0" xr:uid="{4BE9897A-8852-6B40-895A-4AD9308CE01E}">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW4" authorId="0" shapeId="0" xr:uid="{53DE15ED-45AF-FE47-9615-70D775F21605}">
+    <comment ref="AW8" authorId="0" shapeId="0" xr:uid="{53DE15ED-45AF-FE47-9615-70D775F21605}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX4" authorId="0" shapeId="0" xr:uid="{3AFC24B3-56D3-7241-A257-B01B8F429222}">
+    <comment ref="AX8" authorId="0" shapeId="0" xr:uid="{3AFC24B3-56D3-7241-A257-B01B8F429222}">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT5" authorId="0" shapeId="0" xr:uid="{AD8E86C7-F029-8D42-B90D-191D1ED20F7C}">
+    <comment ref="AT9" authorId="0" shapeId="0" xr:uid="{AD8E86C7-F029-8D42-B90D-191D1ED20F7C}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU5" authorId="0" shapeId="0" xr:uid="{74C2EBCC-00E9-9043-BE45-46AD76BC81F5}">
+    <comment ref="AU9" authorId="0" shapeId="0" xr:uid="{74C2EBCC-00E9-9043-BE45-46AD76BC81F5}">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV5" authorId="0" shapeId="0" xr:uid="{A56B5F82-82D3-AA4E-80C4-6AF728B5EAE4}">
+    <comment ref="AV9" authorId="0" shapeId="0" xr:uid="{A56B5F82-82D3-AA4E-80C4-6AF728B5EAE4}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW5" authorId="0" shapeId="0" xr:uid="{5A2CB172-2E17-304F-A551-840B5508588D}">
+    <comment ref="AW9" authorId="0" shapeId="0" xr:uid="{5A2CB172-2E17-304F-A551-840B5508588D}">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX5" authorId="0" shapeId="0" xr:uid="{98E481A3-D51D-F942-AFCA-E0FFE101C3A8}">
+    <comment ref="AX9" authorId="0" shapeId="0" xr:uid="{98E481A3-D51D-F942-AFCA-E0FFE101C3A8}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="407">
   <si>
     <t>company_name</t>
   </si>
@@ -2542,6 +2542,15 @@
   </si>
   <si>
     <t>investment_value [USD]</t>
+  </si>
+  <si>
+    <t>RWE AG</t>
+  </si>
+  <si>
+    <t>529900GB7KCA94ACC940</t>
+  </si>
+  <si>
+    <t>DE0007037129</t>
   </si>
 </sst>
 </file>
@@ -4273,11 +4282,11 @@
   </sheetPr>
   <dimension ref="A1:AZ11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="15"/>
@@ -4450,20 +4459,20 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>56</v>
@@ -4475,154 +4484,155 @@
         <v>44561</v>
       </c>
       <c r="J2">
-        <v>16000</v>
+        <v>27350000000</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>29017000000</v>
       </c>
       <c r="L2">
-        <v>100000</v>
+        <v>16000000000</v>
       </c>
       <c r="M2">
-        <v>400000</v>
+        <v>32404000000</v>
       </c>
       <c r="N2">
-        <f>1000000+L2</f>
-        <v>1100000</v>
+        <v>168366000000</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
-      <c r="R2">
-        <v>995</v>
+        <v>65</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="R2" s="20">
+        <v>136.6</v>
       </c>
       <c r="S2">
-        <v>990</v>
+        <v>125.4</v>
       </c>
       <c r="T2">
-        <v>985</v>
+        <v>91.7</v>
       </c>
       <c r="U2">
-        <v>980</v>
+        <v>70.2</v>
       </c>
       <c r="V2">
-        <v>975</v>
-      </c>
-      <c r="W2"/>
+        <v>86.9</v>
+      </c>
+      <c r="W2" s="4">
+        <v>89.6</v>
+      </c>
       <c r="X2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>97</v>
+        <v>4.7</v>
       </c>
       <c r="AB2">
-        <v>96</v>
-      </c>
-      <c r="AC2">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="18"/>
+        <v>3.1</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>2.8</v>
+      </c>
       <c r="AE2" s="19">
-        <f t="shared" ref="AE2:AK3" si="0">IF(ISBLANK(Q2),IF(ISBLANK(X2),"",X2),Q2+X2)</f>
-        <v>1100</v>
+        <f t="shared" ref="AE2" si="0">IF(ISBLANK(Q2),IF(ISBLANK(X2),"",X2),Q2+X2)</f>
+        <v>155.30000000000001</v>
       </c>
       <c r="AF2" s="19">
-        <f t="shared" si="0"/>
-        <v>1094</v>
+        <f t="shared" ref="AF2" si="1">IF(ISBLANK(R2),IF(ISBLANK(Y2),"",Y2),R2+Y2)</f>
+        <v>136.6</v>
       </c>
       <c r="AG2" s="19">
-        <f t="shared" si="0"/>
-        <v>1088</v>
+        <f t="shared" ref="AG2" si="2">IF(ISBLANK(S2),IF(ISBLANK(Z2),"",Z2),S2+Z2)</f>
+        <v>125.4</v>
       </c>
       <c r="AH2" s="19">
-        <f t="shared" si="0"/>
-        <v>1082</v>
+        <f t="shared" ref="AH2" si="3">IF(ISBLANK(T2),IF(ISBLANK(AA2),"",AA2),T2+AA2)</f>
+        <v>96.4</v>
       </c>
       <c r="AI2" s="19">
-        <f t="shared" si="0"/>
-        <v>1076</v>
+        <f t="shared" ref="AI2" si="4">IF(ISBLANK(U2),IF(ISBLANK(AB2),"",AB2),U2+AB2)</f>
+        <v>73.3</v>
       </c>
       <c r="AJ2" s="19">
-        <f t="shared" si="0"/>
-        <v>1070</v>
-      </c>
-      <c r="AK2" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AL2" s="18">
+        <f t="shared" ref="AJ2" si="5">IF(ISBLANK(V2),IF(ISBLANK(AC2),"",AC2),V2+AC2)</f>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="AK2" s="19">
+        <f t="shared" ref="AK2" si="6">IF(ISBLANK(W2),IF(ISBLANK(AD2),"",AD2),W2+AD2)</f>
+        <v>92.399999999999991</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2" s="18">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" s="18">
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" s="18">
+      <c r="AO2">
         <v>0</v>
       </c>
-      <c r="AP2" s="18">
+      <c r="AP2">
         <v>0</v>
       </c>
-      <c r="AQ2" s="18">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2">
-        <v>3</v>
-      </c>
-      <c r="AT2">
-        <f>AS2+0.1</f>
-        <v>3.1</v>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="21">
+        <v>216</v>
+      </c>
+      <c r="AT2" s="21">
+        <v>200</v>
       </c>
       <c r="AU2">
-        <f t="shared" ref="AU2:AX2" si="1">AT2+0.1</f>
-        <v>3.2</v>
+        <v>176</v>
       </c>
       <c r="AV2">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
+        <v>153</v>
       </c>
       <c r="AW2">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="AX2">
-        <f t="shared" si="1"/>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+        <v>146.755</v>
+      </c>
+      <c r="AX2" s="20">
+        <v>166.56</v>
+      </c>
+      <c r="AY2">
+        <v>162.61199999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>56</v>
@@ -4633,152 +4643,140 @@
       <c r="I3" s="3">
         <v>44561</v>
       </c>
-      <c r="J3">
-        <v>8000</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
-      </c>
-      <c r="L3">
-        <v>200000</v>
-      </c>
-      <c r="M3">
-        <v>400000</v>
-      </c>
-      <c r="N3">
-        <f>1000000+L3</f>
-        <v>1200000</v>
+      <c r="J3" s="22">
+        <v>19310000000</v>
+      </c>
+      <c r="K3" s="22">
+        <v>6974000000</v>
+      </c>
+      <c r="L3" s="22">
+        <v>25930000000</v>
+      </c>
+      <c r="M3" s="22">
+        <f>L3+411000000</f>
+        <v>26341000000</v>
+      </c>
+      <c r="N3" s="22">
+        <v>39504000000</v>
       </c>
       <c r="O3" t="s">
         <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q3">
-        <v>1000</v>
-      </c>
-      <c r="R3">
-        <v>995</v>
+        <v>59</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>1040335</v>
+      </c>
+      <c r="R3" s="20">
+        <v>965570</v>
       </c>
       <c r="S3">
-        <v>990</v>
+        <v>1363231</v>
       </c>
       <c r="T3">
-        <v>985</v>
+        <v>1934393</v>
       </c>
       <c r="U3">
-        <v>980</v>
+        <v>1416448</v>
       </c>
       <c r="V3">
-        <v>975</v>
-      </c>
-      <c r="W3"/>
+        <f>1590305</f>
+        <v>1590305</v>
+      </c>
       <c r="X3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>98</v>
+        <v>381533</v>
       </c>
       <c r="AA3">
-        <v>97</v>
+        <v>231192</v>
       </c>
       <c r="AB3">
-        <v>96</v>
-      </c>
-      <c r="AC3">
-        <v>95</v>
-      </c>
-      <c r="AD3"/>
+        <v>297283</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>273432</v>
+      </c>
       <c r="AE3" s="19">
-        <f t="shared" si="0"/>
-        <v>1100</v>
+        <f t="shared" ref="AE3:AK4" si="7">IF(ISBLANK(Q3),IF(ISBLANK(X3),"",X3),Q3+X3)</f>
+        <v>1040335</v>
       </c>
       <c r="AF3" s="19">
-        <f t="shared" si="0"/>
-        <v>1094</v>
+        <f t="shared" ref="AF3" si="8">IF(ISBLANK(R3),IF(ISBLANK(Y3),"",Y3),R3+Y3)</f>
+        <v>965570</v>
       </c>
       <c r="AG3" s="19">
-        <f t="shared" si="0"/>
-        <v>1088</v>
+        <f t="shared" ref="AG3" si="9">IF(ISBLANK(S3),IF(ISBLANK(Z3),"",Z3),S3+Z3)</f>
+        <v>1744764</v>
       </c>
       <c r="AH3" s="19">
-        <f t="shared" si="0"/>
-        <v>1082</v>
+        <f t="shared" ref="AH3" si="10">IF(ISBLANK(T3),IF(ISBLANK(AA3),"",AA3),T3+AA3)</f>
+        <v>2165585</v>
       </c>
       <c r="AI3" s="19">
-        <f t="shared" si="0"/>
-        <v>1076</v>
+        <f t="shared" ref="AI3" si="11">IF(ISBLANK(U3),IF(ISBLANK(AB3),"",AB3),U3+AB3)</f>
+        <v>1713731</v>
       </c>
       <c r="AJ3" s="19">
-        <f t="shared" si="0"/>
-        <v>1070</v>
+        <f t="shared" ref="AJ3" si="12">IF(ISBLANK(V3),IF(ISBLANK(AC3),"",AC3),V3+AC3)</f>
+        <v>1863737</v>
       </c>
       <c r="AK3" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AK3" si="13">IF(ISBLANK(W3),IF(ISBLANK(AD3),"",AD3),W3+AD3)</f>
         <v/>
       </c>
-      <c r="AL3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AM3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AN3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AO3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AP3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AQ3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AS3">
-        <v>3</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" ref="AT3:AX3" si="2">AS3+0.1</f>
-        <v>3.1</v>
+      <c r="AN3">
+        <v>21590220</v>
+      </c>
+      <c r="AO3">
+        <v>19892852</v>
+      </c>
+      <c r="AP3">
+        <v>24528246</v>
+      </c>
+      <c r="AQ3" s="20">
+        <v>21996103</v>
+      </c>
+      <c r="AS3" s="21">
+        <v>17912</v>
+      </c>
+      <c r="AT3" s="21">
+        <v>18104</v>
       </c>
       <c r="AU3">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
+        <v>20057</v>
       </c>
       <c r="AV3">
-        <f t="shared" si="2"/>
-        <v>3.3000000000000003</v>
+        <v>20960</v>
       </c>
       <c r="AW3">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="2"/>
-        <v>3.5000000000000004</v>
+        <v>22142</v>
+      </c>
+      <c r="AX3" s="20">
+        <v>22591</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>56</v>
@@ -4789,148 +4787,136 @@
       <c r="I4" s="3">
         <v>44561</v>
       </c>
-      <c r="J4">
-        <v>4000</v>
-      </c>
-      <c r="K4">
-        <v>8000</v>
-      </c>
-      <c r="L4">
-        <v>300000</v>
-      </c>
-      <c r="M4">
-        <v>400000</v>
-      </c>
-      <c r="N4">
-        <f>1000000+L4</f>
-        <v>1300000</v>
+      <c r="J4" s="22">
+        <v>19310000000</v>
+      </c>
+      <c r="K4" s="22">
+        <v>6974000000</v>
+      </c>
+      <c r="L4" s="22">
+        <v>25930000000</v>
+      </c>
+      <c r="M4" s="22">
+        <f>L4+411000000</f>
+        <v>26341000000</v>
+      </c>
+      <c r="N4" s="22">
+        <v>39504000000</v>
       </c>
       <c r="O4" t="s">
         <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q4">
-        <v>1000</v>
-      </c>
-      <c r="R4">
-        <v>995</v>
+        <v>59</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>1040335</v>
+      </c>
+      <c r="R4" s="20">
+        <v>965570</v>
       </c>
       <c r="S4">
-        <v>990</v>
+        <v>1363231</v>
       </c>
       <c r="T4">
-        <v>985</v>
+        <v>1934393</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>1416448</v>
       </c>
       <c r="V4">
-        <v>975</v>
-      </c>
-      <c r="W4"/>
+        <f>1590305</f>
+        <v>1590305</v>
+      </c>
       <c r="X4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>98</v>
+        <v>381533</v>
       </c>
       <c r="AA4">
-        <v>97</v>
+        <v>231192</v>
       </c>
       <c r="AB4">
-        <v>96</v>
-      </c>
-      <c r="AC4">
-        <v>95</v>
-      </c>
-      <c r="AD4"/>
+        <v>297283</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>273432</v>
+      </c>
       <c r="AE4" s="19">
-        <f t="shared" ref="AE4" si="3">IF(ISBLANK(Q4),IF(ISBLANK(X4),"",X4),Q4+X4)</f>
-        <v>1100</v>
+        <f t="shared" si="7"/>
+        <v>1040335</v>
       </c>
       <c r="AF4" s="19">
-        <f t="shared" ref="AF4" si="4">IF(ISBLANK(R4),IF(ISBLANK(Y4),"",Y4),R4+Y4)</f>
-        <v>1094</v>
+        <f t="shared" si="7"/>
+        <v>965570</v>
       </c>
       <c r="AG4" s="19">
-        <f t="shared" ref="AG4" si="5">IF(ISBLANK(S4),IF(ISBLANK(Z4),"",Z4),S4+Z4)</f>
-        <v>1088</v>
+        <f t="shared" si="7"/>
+        <v>1744764</v>
       </c>
       <c r="AH4" s="19">
-        <f t="shared" ref="AH4" si="6">IF(ISBLANK(T4),IF(ISBLANK(AA4),"",AA4),T4+AA4)</f>
-        <v>1082</v>
+        <f t="shared" si="7"/>
+        <v>2165585</v>
       </c>
       <c r="AI4" s="19">
-        <f t="shared" ref="AI4" si="7">IF(ISBLANK(U4),IF(ISBLANK(AB4),"",AB4),U4+AB4)</f>
-        <v>1076</v>
+        <f t="shared" si="7"/>
+        <v>1713731</v>
       </c>
       <c r="AJ4" s="19">
-        <f t="shared" ref="AJ4" si="8">IF(ISBLANK(V4),IF(ISBLANK(AC4),"",AC4),V4+AC4)</f>
-        <v>1070</v>
+        <f t="shared" si="7"/>
+        <v>1863737</v>
       </c>
       <c r="AK4" s="19" t="str">
-        <f t="shared" ref="AK4" si="9">IF(ISBLANK(W4),IF(ISBLANK(AD4),"",AD4),W4+AD4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AM4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AN4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AO4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AP4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AQ4" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AS4">
-        <v>3</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" ref="AT4:AX4" si="10">AS4+0.1</f>
-        <v>3.1</v>
+      <c r="AN4">
+        <v>21590220</v>
+      </c>
+      <c r="AO4">
+        <v>19892852</v>
+      </c>
+      <c r="AP4">
+        <v>24528246</v>
+      </c>
+      <c r="AQ4" s="20">
+        <v>21996103</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>17912</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>18104</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="10"/>
-        <v>3.2</v>
+        <v>20057</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="10"/>
-        <v>3.3000000000000003</v>
+        <v>20960</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="10"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="10"/>
-        <v>3.5000000000000004</v>
+        <v>22142</v>
+      </c>
+      <c r="AX4" s="20">
+        <v>22591</v>
       </c>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
@@ -4945,152 +4931,140 @@
       <c r="I5" s="3">
         <v>44561</v>
       </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5">
-        <v>16000</v>
-      </c>
-      <c r="L5">
-        <v>400000</v>
-      </c>
-      <c r="M5">
-        <v>400000</v>
-      </c>
-      <c r="N5">
-        <f>1000000+L5</f>
-        <v>1400000</v>
+      <c r="J5" s="22">
+        <v>19310000000</v>
+      </c>
+      <c r="K5" s="22">
+        <v>6974000000</v>
+      </c>
+      <c r="L5" s="22">
+        <v>25930000000</v>
+      </c>
+      <c r="M5" s="22">
+        <f>L5+411000000</f>
+        <v>26341000000</v>
+      </c>
+      <c r="N5" s="22">
+        <v>39504000000</v>
       </c>
       <c r="O5" t="s">
         <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q5">
-        <v>1000</v>
-      </c>
-      <c r="R5">
-        <v>995</v>
+        <v>59</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>1040335</v>
+      </c>
+      <c r="R5" s="20">
+        <v>965570</v>
       </c>
       <c r="S5">
-        <v>990</v>
+        <v>1363231</v>
       </c>
       <c r="T5">
-        <v>985</v>
+        <v>1934393</v>
       </c>
       <c r="U5">
-        <v>980</v>
+        <v>1416448</v>
       </c>
       <c r="V5">
-        <v>975</v>
-      </c>
-      <c r="W5"/>
+        <f>1590305</f>
+        <v>1590305</v>
+      </c>
       <c r="X5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>98</v>
+        <v>381533</v>
       </c>
       <c r="AA5">
-        <v>97</v>
+        <v>231192</v>
       </c>
       <c r="AB5">
-        <v>96</v>
-      </c>
-      <c r="AC5">
-        <v>95</v>
-      </c>
-      <c r="AD5"/>
+        <v>297283</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>273432</v>
+      </c>
       <c r="AE5" s="19">
-        <f t="shared" ref="AE5:AK7" si="11">IF(ISBLANK(Q5),IF(ISBLANK(X5),"",X5),Q5+X5)</f>
-        <v>1100</v>
+        <f t="shared" ref="AE5" si="14">IF(ISBLANK(Q5),IF(ISBLANK(X5),"",X5),Q5+X5)</f>
+        <v>1040335</v>
       </c>
       <c r="AF5" s="19">
-        <f t="shared" ref="AF5:AF6" si="12">IF(ISBLANK(R5),IF(ISBLANK(Y5),"",Y5),R5+Y5)</f>
-        <v>1094</v>
+        <f t="shared" ref="AF5" si="15">IF(ISBLANK(R5),IF(ISBLANK(Y5),"",Y5),R5+Y5)</f>
+        <v>965570</v>
       </c>
       <c r="AG5" s="19">
-        <f t="shared" ref="AG5:AG6" si="13">IF(ISBLANK(S5),IF(ISBLANK(Z5),"",Z5),S5+Z5)</f>
-        <v>1088</v>
+        <f t="shared" ref="AG5" si="16">IF(ISBLANK(S5),IF(ISBLANK(Z5),"",Z5),S5+Z5)</f>
+        <v>1744764</v>
       </c>
       <c r="AH5" s="19">
-        <f t="shared" ref="AH5:AH6" si="14">IF(ISBLANK(T5),IF(ISBLANK(AA5),"",AA5),T5+AA5)</f>
-        <v>1082</v>
+        <f t="shared" ref="AH5" si="17">IF(ISBLANK(T5),IF(ISBLANK(AA5),"",AA5),T5+AA5)</f>
+        <v>2165585</v>
       </c>
       <c r="AI5" s="19">
-        <f t="shared" ref="AI5:AI6" si="15">IF(ISBLANK(U5),IF(ISBLANK(AB5),"",AB5),U5+AB5)</f>
-        <v>1076</v>
+        <f t="shared" ref="AI5" si="18">IF(ISBLANK(U5),IF(ISBLANK(AB5),"",AB5),U5+AB5)</f>
+        <v>1713731</v>
       </c>
       <c r="AJ5" s="19">
-        <f t="shared" ref="AJ5:AJ6" si="16">IF(ISBLANK(V5),IF(ISBLANK(AC5),"",AC5),V5+AC5)</f>
-        <v>1070</v>
+        <f t="shared" ref="AJ5" si="19">IF(ISBLANK(V5),IF(ISBLANK(AC5),"",AC5),V5+AC5)</f>
+        <v>1863737</v>
       </c>
       <c r="AK5" s="19" t="str">
-        <f t="shared" ref="AK5:AK6" si="17">IF(ISBLANK(W5),IF(ISBLANK(AD5),"",AD5),W5+AD5)</f>
+        <f t="shared" ref="AK5" si="20">IF(ISBLANK(W5),IF(ISBLANK(AD5),"",AD5),W5+AD5)</f>
         <v/>
       </c>
-      <c r="AL5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AM5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AN5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AO5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AP5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="AS5">
-        <v>3</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" ref="AT5:AX5" si="18">AS5+0.1</f>
-        <v>3.1</v>
+      <c r="AN5">
+        <v>21590220</v>
+      </c>
+      <c r="AO5">
+        <v>19892852</v>
+      </c>
+      <c r="AP5">
+        <v>24528246</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>21996103</v>
+      </c>
+      <c r="AS5" s="21">
+        <v>17912</v>
+      </c>
+      <c r="AT5" s="21">
+        <v>18104</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="18"/>
-        <v>3.2</v>
+        <v>20057</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="18"/>
-        <v>3.3000000000000003</v>
+        <v>20960</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="18"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="18"/>
-        <v>3.5000000000000004</v>
+        <v>22142</v>
+      </c>
+      <c r="AX5" s="20">
+        <v>22591</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>56</v>
@@ -5101,140 +5075,155 @@
       <c r="I6" s="3">
         <v>44561</v>
       </c>
-      <c r="J6" s="22">
-        <v>19310000000</v>
-      </c>
-      <c r="K6" s="22">
-        <v>6974000000</v>
-      </c>
-      <c r="L6" s="22">
-        <v>25930000000</v>
-      </c>
-      <c r="M6" s="22">
-        <f>L6+411000000</f>
-        <v>26341000000</v>
-      </c>
-      <c r="N6" s="22">
-        <v>39504000000</v>
+      <c r="J6">
+        <v>16000</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+      <c r="L6">
+        <v>100000</v>
+      </c>
+      <c r="M6">
+        <v>400000</v>
+      </c>
+      <c r="N6">
+        <f>1000000+L6</f>
+        <v>1100000</v>
       </c>
       <c r="O6" t="s">
         <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>1040335</v>
-      </c>
-      <c r="R6" s="20">
-        <v>965570</v>
+        <v>402</v>
+      </c>
+      <c r="Q6">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>995</v>
       </c>
       <c r="S6">
-        <v>1363231</v>
+        <v>990</v>
       </c>
       <c r="T6">
-        <v>1934393</v>
+        <v>985</v>
       </c>
       <c r="U6">
-        <v>1416448</v>
+        <v>980</v>
       </c>
       <c r="V6">
-        <f>1590305</f>
-        <v>1590305</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="W6"/>
       <c r="X6">
+        <v>100</v>
+      </c>
+      <c r="Y6">
+        <v>99</v>
+      </c>
+      <c r="Z6">
+        <v>98</v>
+      </c>
+      <c r="AA6">
+        <v>97</v>
+      </c>
+      <c r="AB6">
+        <v>96</v>
+      </c>
+      <c r="AC6">
+        <v>95</v>
+      </c>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="19">
+        <f t="shared" ref="AE6:AK7" si="21">IF(ISBLANK(Q6),IF(ISBLANK(X6),"",X6),Q6+X6)</f>
+        <v>1100</v>
+      </c>
+      <c r="AF6" s="19">
+        <f t="shared" si="21"/>
+        <v>1094</v>
+      </c>
+      <c r="AG6" s="19">
+        <f t="shared" si="21"/>
+        <v>1088</v>
+      </c>
+      <c r="AH6" s="19">
+        <f t="shared" si="21"/>
+        <v>1082</v>
+      </c>
+      <c r="AI6" s="19">
+        <f t="shared" si="21"/>
+        <v>1076</v>
+      </c>
+      <c r="AJ6" s="19">
+        <f t="shared" si="21"/>
+        <v>1070</v>
+      </c>
+      <c r="AK6" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AL6" s="18">
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="AM6" s="18">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>381533</v>
-      </c>
-      <c r="AA6">
-        <v>231192</v>
-      </c>
-      <c r="AB6">
-        <v>297283</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>273432</v>
-      </c>
-      <c r="AE6" s="19">
-        <f t="shared" si="11"/>
-        <v>1040335</v>
-      </c>
-      <c r="AF6" s="19">
-        <f t="shared" si="12"/>
-        <v>965570</v>
-      </c>
-      <c r="AG6" s="19">
-        <f t="shared" si="13"/>
-        <v>1744764</v>
-      </c>
-      <c r="AH6" s="19">
-        <f t="shared" si="14"/>
-        <v>2165585</v>
-      </c>
-      <c r="AI6" s="19">
-        <f t="shared" si="15"/>
-        <v>1713731</v>
-      </c>
-      <c r="AJ6" s="19">
-        <f t="shared" si="16"/>
-        <v>1863737</v>
-      </c>
-      <c r="AK6" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AN6">
-        <v>21590220</v>
-      </c>
-      <c r="AO6">
-        <v>19892852</v>
-      </c>
-      <c r="AP6">
-        <v>24528246</v>
-      </c>
-      <c r="AQ6" s="20">
-        <v>21996103</v>
-      </c>
-      <c r="AS6" s="21">
-        <v>17912</v>
-      </c>
-      <c r="AT6" s="21">
-        <v>18104</v>
+      <c r="AN6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="18"/>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <f>AS6+0.1</f>
+        <v>3.1</v>
       </c>
       <c r="AU6">
-        <v>20057</v>
+        <f t="shared" ref="AU6:AX6" si="22">AT6+0.1</f>
+        <v>3.2</v>
       </c>
       <c r="AV6">
-        <v>20960</v>
+        <f t="shared" si="22"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="AW6">
-        <v>22142</v>
-      </c>
-      <c r="AX6" s="20">
-        <v>22591</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="22"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>56</v>
@@ -5245,136 +5234,148 @@
       <c r="I7" s="3">
         <v>44561</v>
       </c>
-      <c r="J7" s="22">
-        <v>19310000000</v>
-      </c>
-      <c r="K7" s="22">
-        <v>6974000000</v>
-      </c>
-      <c r="L7" s="22">
-        <v>25930000000</v>
-      </c>
-      <c r="M7" s="22">
-        <f>L7+411000000</f>
-        <v>26341000000</v>
-      </c>
-      <c r="N7" s="22">
-        <v>39504000000</v>
+      <c r="J7">
+        <v>8000</v>
+      </c>
+      <c r="K7">
+        <v>4000</v>
+      </c>
+      <c r="L7">
+        <v>200000</v>
+      </c>
+      <c r="M7">
+        <v>400000</v>
+      </c>
+      <c r="N7">
+        <f>1000000+L7</f>
+        <v>1200000</v>
       </c>
       <c r="O7" t="s">
         <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>1040335</v>
-      </c>
-      <c r="R7" s="20">
-        <v>965570</v>
+        <v>402</v>
+      </c>
+      <c r="Q7">
+        <v>1000</v>
+      </c>
+      <c r="R7">
+        <v>995</v>
       </c>
       <c r="S7">
-        <v>1363231</v>
+        <v>990</v>
       </c>
       <c r="T7">
-        <v>1934393</v>
+        <v>985</v>
       </c>
       <c r="U7">
-        <v>1416448</v>
+        <v>980</v>
       </c>
       <c r="V7">
-        <f>1590305</f>
-        <v>1590305</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="W7"/>
       <c r="X7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Z7">
-        <v>381533</v>
+        <v>98</v>
       </c>
       <c r="AA7">
-        <v>231192</v>
+        <v>97</v>
       </c>
       <c r="AB7">
-        <v>297283</v>
-      </c>
-      <c r="AC7" s="20">
-        <v>273432</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AC7">
+        <v>95</v>
+      </c>
+      <c r="AD7"/>
       <c r="AE7" s="19">
-        <f t="shared" si="11"/>
-        <v>1040335</v>
+        <f t="shared" si="21"/>
+        <v>1100</v>
       </c>
       <c r="AF7" s="19">
-        <f t="shared" si="11"/>
-        <v>965570</v>
+        <f t="shared" si="21"/>
+        <v>1094</v>
       </c>
       <c r="AG7" s="19">
-        <f t="shared" si="11"/>
-        <v>1744764</v>
+        <f t="shared" si="21"/>
+        <v>1088</v>
       </c>
       <c r="AH7" s="19">
-        <f t="shared" si="11"/>
-        <v>2165585</v>
+        <f t="shared" si="21"/>
+        <v>1082</v>
       </c>
       <c r="AI7" s="19">
-        <f t="shared" si="11"/>
-        <v>1713731</v>
+        <f t="shared" si="21"/>
+        <v>1076</v>
       </c>
       <c r="AJ7" s="19">
-        <f t="shared" si="11"/>
-        <v>1863737</v>
+        <f t="shared" si="21"/>
+        <v>1070</v>
       </c>
       <c r="AK7" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AN7">
-        <v>21590220</v>
-      </c>
-      <c r="AO7">
-        <v>19892852</v>
-      </c>
-      <c r="AP7">
-        <v>24528246</v>
-      </c>
-      <c r="AQ7" s="20">
-        <v>21996103</v>
-      </c>
-      <c r="AS7" s="21">
-        <v>17912</v>
-      </c>
-      <c r="AT7" s="21">
-        <v>18104</v>
+      <c r="AL7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7:AX7" si="23">AS7+0.1</f>
+        <v>3.1</v>
       </c>
       <c r="AU7">
-        <v>20057</v>
+        <f t="shared" si="23"/>
+        <v>3.2</v>
       </c>
       <c r="AV7">
-        <v>20960</v>
+        <f t="shared" si="23"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="AW7">
-        <v>22142</v>
-      </c>
-      <c r="AX7" s="20">
-        <v>22591</v>
+        <f t="shared" si="23"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="23"/>
+        <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
@@ -5389,126 +5390,291 @@
       <c r="I8" s="3">
         <v>44561</v>
       </c>
-      <c r="J8" s="22">
-        <v>19310000000</v>
-      </c>
-      <c r="K8" s="22">
-        <v>6974000000</v>
-      </c>
-      <c r="L8" s="22">
-        <v>25930000000</v>
-      </c>
-      <c r="M8" s="22">
-        <f>L8+411000000</f>
-        <v>26341000000</v>
-      </c>
-      <c r="N8" s="22">
-        <v>39504000000</v>
+      <c r="J8">
+        <v>4000</v>
+      </c>
+      <c r="K8">
+        <v>8000</v>
+      </c>
+      <c r="L8">
+        <v>300000</v>
+      </c>
+      <c r="M8">
+        <v>400000</v>
+      </c>
+      <c r="N8">
+        <f>1000000+L8</f>
+        <v>1300000</v>
       </c>
       <c r="O8" t="s">
         <v>58</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>1040335</v>
-      </c>
-      <c r="R8" s="20">
-        <v>965570</v>
+        <v>402</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>995</v>
       </c>
       <c r="S8">
-        <v>1363231</v>
+        <v>990</v>
       </c>
       <c r="T8">
-        <v>1934393</v>
+        <v>985</v>
       </c>
       <c r="U8">
-        <v>1416448</v>
+        <v>980</v>
       </c>
       <c r="V8">
-        <f>1590305</f>
-        <v>1590305</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="W8"/>
       <c r="X8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Z8">
-        <v>381533</v>
+        <v>98</v>
       </c>
       <c r="AA8">
-        <v>231192</v>
+        <v>97</v>
       </c>
       <c r="AB8">
-        <v>297283</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>273432</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AC8">
+        <v>95</v>
+      </c>
+      <c r="AD8"/>
       <c r="AE8" s="19">
-        <f t="shared" ref="AE8" si="19">IF(ISBLANK(Q8),IF(ISBLANK(X8),"",X8),Q8+X8)</f>
-        <v>1040335</v>
+        <f t="shared" ref="AE8" si="24">IF(ISBLANK(Q8),IF(ISBLANK(X8),"",X8),Q8+X8)</f>
+        <v>1100</v>
       </c>
       <c r="AF8" s="19">
-        <f t="shared" ref="AF8" si="20">IF(ISBLANK(R8),IF(ISBLANK(Y8),"",Y8),R8+Y8)</f>
-        <v>965570</v>
+        <f t="shared" ref="AF8" si="25">IF(ISBLANK(R8),IF(ISBLANK(Y8),"",Y8),R8+Y8)</f>
+        <v>1094</v>
       </c>
       <c r="AG8" s="19">
-        <f t="shared" ref="AG8" si="21">IF(ISBLANK(S8),IF(ISBLANK(Z8),"",Z8),S8+Z8)</f>
-        <v>1744764</v>
+        <f t="shared" ref="AG8" si="26">IF(ISBLANK(S8),IF(ISBLANK(Z8),"",Z8),S8+Z8)</f>
+        <v>1088</v>
       </c>
       <c r="AH8" s="19">
-        <f t="shared" ref="AH8" si="22">IF(ISBLANK(T8),IF(ISBLANK(AA8),"",AA8),T8+AA8)</f>
-        <v>2165585</v>
+        <f t="shared" ref="AH8" si="27">IF(ISBLANK(T8),IF(ISBLANK(AA8),"",AA8),T8+AA8)</f>
+        <v>1082</v>
       </c>
       <c r="AI8" s="19">
-        <f t="shared" ref="AI8" si="23">IF(ISBLANK(U8),IF(ISBLANK(AB8),"",AB8),U8+AB8)</f>
-        <v>1713731</v>
+        <f t="shared" ref="AI8" si="28">IF(ISBLANK(U8),IF(ISBLANK(AB8),"",AB8),U8+AB8)</f>
+        <v>1076</v>
       </c>
       <c r="AJ8" s="19">
-        <f t="shared" ref="AJ8" si="24">IF(ISBLANK(V8),IF(ISBLANK(AC8),"",AC8),V8+AC8)</f>
-        <v>1863737</v>
+        <f t="shared" ref="AJ8" si="29">IF(ISBLANK(V8),IF(ISBLANK(AC8),"",AC8),V8+AC8)</f>
+        <v>1070</v>
       </c>
       <c r="AK8" s="19" t="str">
-        <f t="shared" ref="AK8" si="25">IF(ISBLANK(W8),IF(ISBLANK(AD8),"",AD8),W8+AD8)</f>
+        <f t="shared" ref="AK8" si="30">IF(ISBLANK(W8),IF(ISBLANK(AD8),"",AD8),W8+AD8)</f>
         <v/>
       </c>
-      <c r="AN8">
-        <v>21590220</v>
-      </c>
-      <c r="AO8">
-        <v>19892852</v>
-      </c>
-      <c r="AP8">
-        <v>24528246</v>
-      </c>
-      <c r="AQ8" s="20">
-        <v>21996103</v>
-      </c>
-      <c r="AS8" s="21">
-        <v>17912</v>
-      </c>
-      <c r="AT8" s="21">
-        <v>18104</v>
+      <c r="AL8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AN8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AO8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AQ8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ref="AT8:AX8" si="31">AS8+0.1</f>
+        <v>3.1</v>
       </c>
       <c r="AU8">
-        <v>20057</v>
+        <f t="shared" si="31"/>
+        <v>3.2</v>
       </c>
       <c r="AV8">
-        <v>20960</v>
+        <f t="shared" si="31"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="AW8">
-        <v>22142</v>
-      </c>
-      <c r="AX8" s="20">
-        <v>22591</v>
+        <f t="shared" si="31"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="31"/>
+        <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:52">
-      <c r="E9"/>
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44561</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>16000</v>
+      </c>
+      <c r="L9">
+        <v>400000</v>
+      </c>
+      <c r="M9">
+        <v>400000</v>
+      </c>
+      <c r="N9">
+        <f>1000000+L9</f>
+        <v>1400000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
+      <c r="R9">
+        <v>995</v>
+      </c>
+      <c r="S9">
+        <v>990</v>
+      </c>
+      <c r="T9">
+        <v>985</v>
+      </c>
+      <c r="U9">
+        <v>980</v>
+      </c>
+      <c r="V9">
+        <v>975</v>
+      </c>
+      <c r="W9"/>
+      <c r="X9">
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <v>99</v>
+      </c>
+      <c r="Z9">
+        <v>98</v>
+      </c>
+      <c r="AA9">
+        <v>97</v>
+      </c>
+      <c r="AB9">
+        <v>96</v>
+      </c>
+      <c r="AC9">
+        <v>95</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9" s="19">
+        <f>IF(ISBLANK(Q9),IF(ISBLANK(X9),"",X9),Q9+X9)</f>
+        <v>1100</v>
+      </c>
+      <c r="AF9" s="19">
+        <f>IF(ISBLANK(R9),IF(ISBLANK(Y9),"",Y9),R9+Y9)</f>
+        <v>1094</v>
+      </c>
+      <c r="AG9" s="19">
+        <f>IF(ISBLANK(S9),IF(ISBLANK(Z9),"",Z9),S9+Z9)</f>
+        <v>1088</v>
+      </c>
+      <c r="AH9" s="19">
+        <f>IF(ISBLANK(T9),IF(ISBLANK(AA9),"",AA9),T9+AA9)</f>
+        <v>1082</v>
+      </c>
+      <c r="AI9" s="19">
+        <f>IF(ISBLANK(U9),IF(ISBLANK(AB9),"",AB9),U9+AB9)</f>
+        <v>1076</v>
+      </c>
+      <c r="AJ9" s="19">
+        <f>IF(ISBLANK(V9),IF(ISBLANK(AC9),"",AC9),V9+AC9)</f>
+        <v>1070</v>
+      </c>
+      <c r="AK9" s="19" t="str">
+        <f>IF(ISBLANK(W9),IF(ISBLANK(AD9),"",AD9),W9+AD9)</f>
+        <v/>
+      </c>
+      <c r="AL9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" ref="AT9:AX9" si="32">AS9+0.1</f>
+        <v>3.1</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="32"/>
+        <v>3.2</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="32"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="32"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="32"/>
+        <v>3.5000000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:52">
       <c r="E10"/>
@@ -14410,13 +14576,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -14477,84 +14643,78 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'ITR input data'!D2</f>
-        <v>FR</v>
-      </c>
-      <c r="E2" s="37">
-        <v>2050</v>
-      </c>
-      <c r="F2" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="88">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="31">
         <v>2019</v>
       </c>
-      <c r="I2">
-        <v>2016</v>
-      </c>
       <c r="J2" s="38">
-        <f>'ITR input data'!AE2/'ITR input data'!AS2</f>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="K2" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
-        <v>t CO2/(TJ)</v>
-      </c>
-      <c r="L2" s="37">
-        <v>2030</v>
-      </c>
-      <c r="M2" s="39">
-        <v>0.5</v>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="40">
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'ITR input data'!D3</f>
-        <v>FR</v>
-      </c>
-      <c r="E3" s="37">
-        <v>2050</v>
-      </c>
-      <c r="F3" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2040</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="88">
+        <v>2020</v>
+      </c>
+      <c r="I3" s="31">
         <v>2019</v>
       </c>
-      <c r="I3">
-        <v>2016</v>
-      </c>
       <c r="J3" s="38">
-        <f>'ITR input data'!AE3/'ITR input data'!AS3</f>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="K3" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
-        <v>t CO2/(TJ)</v>
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="L3">
         <v>2030</v>
@@ -14564,390 +14724,519 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="28" t="s">
-        <v>390</v>
+      <c r="A4" t="s">
+        <v>404</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="28" t="str">
-        <f>'ITR input data'!D4</f>
-        <v>FR</v>
-      </c>
-      <c r="E4" s="88">
-        <v>2050</v>
-      </c>
-      <c r="F4" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2040</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" t="s">
         <v>297</v>
       </c>
       <c r="H4" s="88">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="31">
         <v>2019</v>
       </c>
-      <c r="I4" s="88">
-        <v>2016</v>
-      </c>
-      <c r="J4" s="89">
-        <f>'ITR input data'!AE4/'ITR input data'!AS4</f>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="K4" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
-        <v>t CO2/(TJ)</v>
-      </c>
-      <c r="L4" s="88">
-        <v>2030</v>
-      </c>
-      <c r="M4" s="90">
-        <v>0.5</v>
+      <c r="J4" s="38">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4">
+        <v>2040</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="28" t="s">
-        <v>391</v>
+      <c r="A5" t="s">
+        <v>397</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="28" t="str">
-        <f>'ITR input data'!D5</f>
-        <v>FR</v>
-      </c>
-      <c r="E5" s="88">
-        <v>2050</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>297</v>
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2035</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" t="s">
+        <v>302</v>
       </c>
       <c r="H5" s="88">
-        <v>2019</v>
-      </c>
-      <c r="I5" s="88">
-        <v>2016</v>
-      </c>
-      <c r="J5" s="89">
-        <f>'ITR input data'!AE5/'ITR input data'!AS5</f>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="K5" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
-        <v>t CO2/(TJ)</v>
-      </c>
-      <c r="L5" s="88">
-        <v>2030</v>
-      </c>
-      <c r="M5" s="90">
-        <v>0.5</v>
+        <v>2021</v>
+      </c>
+      <c r="I5" s="31">
+        <v>2015</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>2025</v>
+      </c>
+      <c r="M5" s="40">
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="str">
-        <f>'ITR input data'!D2</f>
-        <v>FR</v>
-      </c>
-      <c r="E6" s="88">
-        <v>2050</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="37">
-        <v>2019</v>
-      </c>
-      <c r="I6">
-        <v>2016</v>
+        <v>395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2035</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="88">
+        <v>2021</v>
+      </c>
+      <c r="I6" s="31">
+        <v>2015</v>
       </c>
       <c r="J6" s="38">
-        <f>'ITR input data'!AL2/'ITR input data'!AS2</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
-        <v>t CO2/(TJ)</v>
-      </c>
-      <c r="L6" s="37">
-        <v>2030</v>
-      </c>
-      <c r="M6" s="39">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>2025</v>
+      </c>
+      <c r="M6" s="40">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2035</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="88">
+        <v>2021</v>
+      </c>
+      <c r="I7" s="31">
+        <v>2015</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>2025</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="str">
+        <f>'ITR input data'!D6</f>
+        <v>FR</v>
+      </c>
+      <c r="E8" s="37">
+        <v>2050</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="37">
+        <v>2019</v>
+      </c>
+      <c r="I8">
+        <v>2016</v>
+      </c>
+      <c r="J8" s="38">
+        <f>'ITR input data'!AE6/'ITR input data'!AS6</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="K8" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O6,"/(",'ITR input data'!P6,")")</f>
+        <v>t CO2/(TJ)</v>
+      </c>
+      <c r="L8" s="37">
+        <v>2030</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="str">
-        <f>'ITR input data'!D3</f>
+      <c r="D9" t="str">
+        <f>'ITR input data'!D7</f>
         <v>FR</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E9" s="37">
         <v>2050</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F9" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="37">
+      <c r="G9" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="37">
         <v>2019</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>2016</v>
       </c>
-      <c r="J7" s="38">
-        <f>'ITR input data'!AL3/'ITR input data'!AS3</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="K7" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
+      <c r="J9" s="38">
+        <f>'ITR input data'!AE7/'ITR input data'!AS7</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="K9" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O7,"/(",'ITR input data'!P7,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>2030</v>
       </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="28" t="s">
+      <c r="M9" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="str">
-        <f>'ITR input data'!D4</f>
+      <c r="D10" s="28" t="str">
+        <f>'ITR input data'!D8</f>
         <v>FR</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E10" s="88">
         <v>2050</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F10" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="88">
+      <c r="G10" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="88">
         <v>2019</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I10" s="88">
         <v>2016</v>
       </c>
-      <c r="J8" s="38">
-        <f>'ITR input data'!AL4/'ITR input data'!AS4</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="K8" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
+      <c r="J10" s="89">
+        <f>'ITR input data'!AE8/'ITR input data'!AS8</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="K10" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O8,"/(",'ITR input data'!P8,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L10" s="88">
         <v>2030</v>
       </c>
-      <c r="M8" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="28" t="s">
+      <c r="M10" s="90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C11" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="str">
-        <f>'ITR input data'!D5</f>
+      <c r="D11" s="28" t="str">
+        <f>'ITR input data'!D9</f>
         <v>FR</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E11" s="88">
         <v>2050</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F11" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="H9" s="88">
+      <c r="G11" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="88">
         <v>2019</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I11" s="88">
         <v>2016</v>
       </c>
-      <c r="J9" s="38">
-        <f>'ITR input data'!AL5/'ITR input data'!AS5</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="K9" s="37" t="str">
-        <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
+      <c r="J11" s="89">
+        <f>'ITR input data'!AE9/'ITR input data'!AS9</f>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="K11" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O9,"/(",'ITR input data'!P9,")")</f>
         <v>t CO2/(TJ)</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L11" s="88">
         <v>2030</v>
       </c>
-      <c r="M9" s="90">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2035</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="88">
-        <v>2021</v>
-      </c>
-      <c r="I10" s="31">
-        <v>2015</v>
-      </c>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10">
-        <v>2025</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="28">
-        <v>2035</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H11" s="88">
-        <v>2021</v>
-      </c>
-      <c r="I11" s="31">
-        <v>2015</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11">
-        <v>2025</v>
-      </c>
-      <c r="M11" s="40">
-        <v>0.35</v>
+      <c r="M11" s="90">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2035</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="G12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H12" s="88">
-        <v>2021</v>
-      </c>
-      <c r="I12" s="31">
-        <v>2015</v>
+        <v>53</v>
+      </c>
+      <c r="D12" t="str">
+        <f>'ITR input data'!D6</f>
+        <v>FR</v>
+      </c>
+      <c r="E12" s="88">
+        <v>2050</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H12" s="37">
+        <v>2019</v>
+      </c>
+      <c r="I12">
+        <v>2016</v>
       </c>
       <c r="J12" s="38">
+        <f>'ITR input data'!AL6/'ITR input data'!AS6</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O6,"/(",'ITR input data'!P6,")")</f>
+        <v>t CO2/(TJ)</v>
+      </c>
+      <c r="L12" s="37">
+        <v>2030</v>
+      </c>
+      <c r="M12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="str">
+        <f>'ITR input data'!D7</f>
+        <v>FR</v>
+      </c>
+      <c r="E13" s="88">
+        <v>2050</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="37">
+        <v>2019</v>
+      </c>
+      <c r="I13">
+        <v>2016</v>
+      </c>
+      <c r="J13" s="38">
+        <f>'ITR input data'!AL7/'ITR input data'!AS7</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="K13" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O7,"/(",'ITR input data'!P7,")")</f>
+        <v>t CO2/(TJ)</v>
+      </c>
+      <c r="L13">
+        <v>2030</v>
+      </c>
+      <c r="M13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="str">
+        <f>'ITR input data'!D8</f>
+        <v>FR</v>
+      </c>
+      <c r="E14" s="88">
+        <v>2050</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="88">
+        <v>2019</v>
+      </c>
+      <c r="I14" s="88">
+        <v>2016</v>
+      </c>
+      <c r="J14" s="38">
+        <f>'ITR input data'!AL8/'ITR input data'!AS8</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="K14" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O8,"/(",'ITR input data'!P8,")")</f>
+        <v>t CO2/(TJ)</v>
+      </c>
+      <c r="L14" s="88">
+        <v>2030</v>
+      </c>
+      <c r="M14" s="90">
         <v>1</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12">
-        <v>2025</v>
-      </c>
-      <c r="M12" s="40">
-        <v>0.35</v>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="str">
+        <f>'ITR input data'!D9</f>
+        <v>FR</v>
+      </c>
+      <c r="E15" s="88">
+        <v>2050</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="88">
+        <v>2019</v>
+      </c>
+      <c r="I15" s="88">
+        <v>2016</v>
+      </c>
+      <c r="J15" s="38">
+        <f>'ITR input data'!AL9/'ITR input data'!AS9</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="K15" s="37" t="str">
+        <f>CONCATENATE('ITR input data'!O9,"/(",'ITR input data'!P9,")")</f>
+        <v>t CO2/(TJ)</v>
+      </c>
+      <c r="L15" s="88">
+        <v>2030</v>
+      </c>
+      <c r="M15" s="90">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -19779,10 +20068,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19811,128 +20100,138 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>406</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E5" ca="1" si="0">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>70701760</v>
+        <v>180195822</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>138413468</v>
+        <v>74529651</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>238751118</v>
+        <v>64714707</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>73</v>
+        <v>400</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>186474255</v>
+        <v>71049976</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E8" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>262261935</v>
+        <v>123771318</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>99986250</v>
+        <v>85519434</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>266192015</v>
+        <v>57784860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>230353227</v>
       </c>
     </row>
   </sheetData>
@@ -19991,7 +20290,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E66" ca="1" si="0">RANDBETWEEN(35000,250000)</f>
-        <v>214215</v>
+        <v>249578</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -20009,7 +20308,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>165514</v>
+        <v>205413</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -20027,7 +20326,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>107554</v>
+        <v>114019</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -20045,7 +20344,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>46216</v>
+        <v>241150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -20063,7 +20362,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>154361</v>
+        <v>123020</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -20081,7 +20380,7 @@
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E8" ca="1" si="1">RANDBETWEEN(50000,250000)*RANDBETWEEN(600,1200)</f>
-        <v>220891902</v>
+        <v>213528336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -20099,7 +20398,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>141074768</v>
+        <v>50258151</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -20117,7 +20416,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>67694</v>
+        <v>151979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -20135,7 +20434,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>40887</v>
+        <v>227471</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -20153,7 +20452,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>38774</v>
+        <v>179511</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -20171,7 +20470,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>97706</v>
+        <v>128677</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -20189,7 +20488,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>247128</v>
+        <v>214665</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -20207,7 +20506,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>68910</v>
+        <v>49902</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -20225,7 +20524,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>95947</v>
+        <v>61267</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -20243,7 +20542,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>167755</v>
+        <v>185147</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -20261,7 +20560,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>198420</v>
+        <v>196431</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -20279,7 +20578,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>128406</v>
+        <v>41585</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -20297,7 +20596,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>56278</v>
+        <v>132548</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -20315,7 +20614,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>229029</v>
+        <v>73156</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -20333,7 +20632,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>113560</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -20351,7 +20650,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>227073</v>
+        <v>228486</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -20369,7 +20668,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>80466</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -20387,7 +20686,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>77911</v>
+        <v>175041</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -20405,7 +20704,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>49038</v>
+        <v>135723</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -20423,7 +20722,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>59055</v>
+        <v>81471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -20441,7 +20740,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>52239</v>
+        <v>40464</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -20459,7 +20758,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>231630</v>
+        <v>70145</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -20477,7 +20776,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>90621</v>
+        <v>223034</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -20495,7 +20794,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>99898</v>
+        <v>128906</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -20513,7 +20812,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>45724</v>
+        <v>214537</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -20531,7 +20830,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>191269</v>
+        <v>186795</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -20549,7 +20848,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>239097</v>
+        <v>227107</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -20567,7 +20866,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>70666</v>
+        <v>143147</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -20585,7 +20884,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>219368</v>
+        <v>62655</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -20603,7 +20902,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>72898</v>
+        <v>172391</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -20621,7 +20920,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>163044</v>
+        <v>94767</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -20639,7 +20938,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>44837</v>
+        <v>57516</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20657,7 +20956,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>130192</v>
+        <v>102638</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -20675,7 +20974,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>215161</v>
+        <v>96535</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -20693,7 +20992,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>61633</v>
+        <v>225960</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -20711,7 +21010,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>64291</v>
+        <v>39635</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20729,7 +21028,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>76084</v>
+        <v>106206</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20747,7 +21046,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>209546</v>
+        <v>65009</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20765,7 +21064,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>87557</v>
+        <v>93291</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20783,7 +21082,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>124387</v>
+        <v>132819</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20801,7 +21100,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>100117</v>
+        <v>201142</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20819,7 +21118,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>63990</v>
+        <v>243373</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20837,7 +21136,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>204422</v>
+        <v>167251</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20855,7 +21154,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>156380</v>
+        <v>87340</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20873,7 +21172,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>113292</v>
+        <v>112570</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20891,7 +21190,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>234411</v>
+        <v>243511</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20909,7 +21208,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>181340</v>
+        <v>55204</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20927,7 +21226,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>91265</v>
+        <v>37888</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20945,7 +21244,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>82305</v>
+        <v>202879</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20963,7 +21262,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>90090</v>
+        <v>89336</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20981,7 +21280,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>85115</v>
+        <v>142170</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20999,7 +21298,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>74086</v>
+        <v>71004</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -21017,7 +21316,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>75243</v>
+        <v>186674</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -21035,7 +21334,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>53512</v>
+        <v>201994</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -21053,7 +21352,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>159611</v>
+        <v>240344</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -21071,7 +21370,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>208356</v>
+        <v>232278</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -21089,7 +21388,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>173592</v>
+        <v>111569</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -21107,7 +21406,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>95987</v>
+        <v>99394</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -21125,7 +21424,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>130862</v>
+        <v>46687</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -21143,7 +21442,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>184312</v>
+        <v>61587</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -21161,7 +21460,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E69" ca="1" si="2">RANDBETWEEN(35000,250000)</f>
-        <v>114153</v>
+        <v>40720</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -21179,7 +21478,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>41173</v>
+        <v>143047</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -21197,7 +21496,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>65959</v>
+        <v>214518</v>
       </c>
     </row>
   </sheetData>
